--- a/assets.xlsx
+++ b/assets.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Holdings" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,8 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -48,10 +50,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -463,7 +464,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>45894</v>
       </c>
       <c r="B2" t="n">
@@ -488,7 +489,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>45895</v>
       </c>
       <c r="B3" t="n">
@@ -513,7 +514,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>45896</v>
       </c>
       <c r="B4" t="n">
@@ -538,7 +539,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>45897</v>
       </c>
       <c r="B5" t="n">
@@ -563,7 +564,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>45898</v>
       </c>
       <c r="B6" t="n">
@@ -588,7 +589,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>45899</v>
       </c>
       <c r="B7" t="n">
@@ -613,7 +614,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>45900</v>
       </c>
       <c r="B8" t="n">
@@ -638,7 +639,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>45901</v>
       </c>
       <c r="B9" t="n">
@@ -663,7 +664,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>45902</v>
       </c>
       <c r="B10" t="n">
@@ -688,7 +689,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>45903</v>
       </c>
       <c r="B11" t="n">
@@ -713,7 +714,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>45904</v>
       </c>
       <c r="B12" t="n">
@@ -738,7 +739,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="B13" t="n">
@@ -763,7 +764,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>45906</v>
       </c>
       <c r="B14" t="n">
@@ -788,7 +789,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>45907</v>
       </c>
       <c r="B15" t="n">
@@ -813,7 +814,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>45908</v>
       </c>
       <c r="B16" t="n">
@@ -838,7 +839,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>45909</v>
       </c>
       <c r="B17" t="n">
@@ -863,7 +864,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>45910</v>
       </c>
       <c r="B18" t="n">
@@ -888,7 +889,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <v>45911</v>
       </c>
       <c r="B19" t="n">
@@ -913,7 +914,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
         <v>45912</v>
       </c>
       <c r="B20" t="n">
@@ -938,7 +939,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
         <v>45913</v>
       </c>
       <c r="B21" t="n">
@@ -963,7 +964,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
         <v>45914</v>
       </c>
       <c r="B22" t="n">
@@ -988,7 +989,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
         <v>45915</v>
       </c>
       <c r="B23" t="n">
@@ -1013,7 +1014,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
         <v>45916</v>
       </c>
       <c r="B24" t="n">
@@ -1038,7 +1039,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
         <v>45917</v>
       </c>
       <c r="B25" t="n">
@@ -1063,7 +1064,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="1" t="n">
         <v>45918</v>
       </c>
       <c r="B26" t="n">
@@ -1088,7 +1089,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="1" t="n">
         <v>45919</v>
       </c>
       <c r="B27" t="n">
@@ -1113,7 +1114,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="1" t="n">
         <v>45920</v>
       </c>
       <c r="B28" t="n">
@@ -1138,7 +1139,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="1" t="n">
         <v>45921</v>
       </c>
       <c r="B29" t="n">
@@ -1163,7 +1164,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="1" t="n">
         <v>45922</v>
       </c>
       <c r="B30" t="n">
@@ -1188,7 +1189,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="1" t="n">
         <v>45923</v>
       </c>
       <c r="B31" t="n">
@@ -1213,7 +1214,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="1" t="n">
         <v>45924</v>
       </c>
       <c r="B32" t="n">
@@ -1238,7 +1239,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="1" t="n">
         <v>45925</v>
       </c>
       <c r="B33" t="n">
@@ -1263,7 +1264,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="1" t="n">
         <v>45926</v>
       </c>
       <c r="B34" t="n">
@@ -1288,7 +1289,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="1" t="n">
         <v>45927</v>
       </c>
       <c r="B35" t="n">
@@ -1313,7 +1314,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="1" t="n">
         <v>45928</v>
       </c>
       <c r="B36" t="n">
@@ -1338,7 +1339,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="1" t="n">
         <v>45929</v>
       </c>
       <c r="B37" t="n">
@@ -1363,7 +1364,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="1" t="n">
         <v>45930</v>
       </c>
       <c r="B38" t="n">
@@ -1388,7 +1389,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="1" t="n">
         <v>45931</v>
       </c>
       <c r="B39" t="n">
@@ -1413,7 +1414,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="1" t="n">
         <v>45932</v>
       </c>
       <c r="B40" t="n">
@@ -1438,7 +1439,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="1" t="n">
         <v>45933</v>
       </c>
       <c r="B41" t="n">
@@ -1463,7 +1464,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="1" t="n">
         <v>45934</v>
       </c>
       <c r="B42" t="n">
@@ -1488,7 +1489,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="1" t="n">
         <v>45935</v>
       </c>
       <c r="B43" t="n">
@@ -1513,7 +1514,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="1" t="n">
         <v>45936</v>
       </c>
       <c r="B44" t="n">
@@ -1538,7 +1539,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="1" t="n">
         <v>45937</v>
       </c>
       <c r="B45" t="n">
@@ -1563,7 +1564,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="1" t="n">
         <v>45938</v>
       </c>
       <c r="B46" t="n">
@@ -1588,7 +1589,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="1" t="n">
         <v>45939</v>
       </c>
       <c r="B47" t="n">
@@ -1613,7 +1614,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="1" t="n">
         <v>45940</v>
       </c>
       <c r="B48" t="n">
@@ -1638,7 +1639,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="1" t="n">
         <v>45941</v>
       </c>
       <c r="B49" t="n">
@@ -1663,7 +1664,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="1" t="n">
         <v>45942</v>
       </c>
       <c r="B50" t="n">
@@ -1688,7 +1689,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="1" t="n">
         <v>45943</v>
       </c>
       <c r="B51" t="n">
@@ -1713,7 +1714,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="1" t="n">
         <v>45944</v>
       </c>
       <c r="B52" t="n">
@@ -1738,7 +1739,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="1" t="n">
         <v>45945</v>
       </c>
       <c r="B53" t="n">
@@ -1763,7 +1764,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="1" t="n">
         <v>45946</v>
       </c>
       <c r="B54" t="n">
@@ -1788,7 +1789,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="1" t="n">
         <v>45947</v>
       </c>
       <c r="B55" t="n">
@@ -1813,7 +1814,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="1" t="n">
         <v>45948</v>
       </c>
       <c r="B56" t="n">
@@ -1838,7 +1839,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="1" t="n">
         <v>45949</v>
       </c>
       <c r="B57" t="n">
@@ -1863,7 +1864,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="1" t="n">
         <v>45950</v>
       </c>
       <c r="B58" t="n">
@@ -1888,7 +1889,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="1" t="n">
         <v>45951</v>
       </c>
       <c r="B59" t="n">
@@ -1913,7 +1914,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="1" t="n">
         <v>45952</v>
       </c>
       <c r="B60" t="n">
@@ -1938,7 +1939,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="1" t="n">
         <v>45953</v>
       </c>
       <c r="B61" t="n">
@@ -1963,7 +1964,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="1" t="n">
         <v>45954</v>
       </c>
       <c r="B62" t="n">
@@ -1988,7 +1989,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="1" t="n">
         <v>45955</v>
       </c>
       <c r="B63" t="n">
@@ -2013,7 +2014,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="1" t="n">
         <v>45956</v>
       </c>
       <c r="B64" t="n">
@@ -2038,7 +2039,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="1" t="n">
         <v>45957</v>
       </c>
       <c r="B65" t="n">
@@ -2063,7 +2064,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="1" t="n">
         <v>45958</v>
       </c>
       <c r="B66" t="n">
@@ -2088,7 +2089,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="1" t="n">
         <v>45959</v>
       </c>
       <c r="B67" t="n">
@@ -2113,7 +2114,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="1" t="n">
         <v>45960</v>
       </c>
       <c r="B68" t="n">
@@ -2138,7 +2139,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="1" t="n">
         <v>45961</v>
       </c>
       <c r="B69" t="n">
@@ -2163,7 +2164,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="1" t="n">
         <v>45962</v>
       </c>
       <c r="B70" t="n">
@@ -2188,7 +2189,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="1" t="n">
         <v>45963</v>
       </c>
       <c r="B71" t="n">
@@ -2213,7 +2214,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="1" t="n">
         <v>45964</v>
       </c>
       <c r="B72" t="n">
@@ -2238,7 +2239,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="1" t="n">
         <v>45965</v>
       </c>
       <c r="B73" t="n">
@@ -2263,7 +2264,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="1" t="n">
         <v>45966</v>
       </c>
       <c r="B74" t="n">
@@ -2288,7 +2289,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="1" t="n">
         <v>45967</v>
       </c>
       <c r="B75" t="n">
@@ -2313,7 +2314,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="1" t="n">
         <v>45968</v>
       </c>
       <c r="B76" t="n">
@@ -2338,7 +2339,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="1" t="n">
         <v>45969</v>
       </c>
       <c r="B77" t="n">
@@ -2363,7 +2364,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="1" t="n">
         <v>45970</v>
       </c>
       <c r="B78" t="n">
@@ -2388,7 +2389,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="1" t="n">
         <v>45971</v>
       </c>
       <c r="B79" t="n">
@@ -2413,7 +2414,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="1" t="n">
         <v>45972</v>
       </c>
       <c r="B80" t="n">
@@ -2438,7 +2439,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="1" t="n">
         <v>45973</v>
       </c>
       <c r="B81" t="n">
@@ -2463,7 +2464,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="1" t="n">
         <v>45974</v>
       </c>
       <c r="B82" t="n">
@@ -2488,7 +2489,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="1" t="n">
         <v>45975</v>
       </c>
       <c r="B83" t="n">
@@ -2513,7 +2514,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="1" t="n">
         <v>45976</v>
       </c>
       <c r="B84" t="n">
@@ -2538,7 +2539,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="1" t="n">
         <v>45977</v>
       </c>
       <c r="B85" t="n">
@@ -2563,7 +2564,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="1" t="n">
         <v>45978</v>
       </c>
       <c r="B86" t="n">
@@ -2588,7 +2589,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="1" t="n">
         <v>45979</v>
       </c>
       <c r="B87" t="n">
@@ -2613,7 +2614,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="1" t="n">
         <v>45980</v>
       </c>
       <c r="B88" t="n">
@@ -2638,7 +2639,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="1" t="n">
         <v>45981</v>
       </c>
       <c r="B89" t="n">
@@ -2663,7 +2664,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="1" t="n">
         <v>45982</v>
       </c>
       <c r="B90" t="n">
@@ -2688,7 +2689,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="1" t="n">
         <v>45983</v>
       </c>
       <c r="B91" t="n">
@@ -2713,7 +2714,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="1" t="n">
         <v>45984</v>
       </c>
       <c r="B92" t="n">
@@ -2738,7 +2739,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="1" t="n">
         <v>45985</v>
       </c>
       <c r="B93" t="n">
@@ -2763,7 +2764,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="1" t="n">
         <v>45986</v>
       </c>
       <c r="B94" t="n">
@@ -2788,7 +2789,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="1" t="n">
         <v>45987</v>
       </c>
       <c r="B95" t="n">
@@ -2813,7 +2814,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="1" t="n">
         <v>45988</v>
       </c>
       <c r="B96" t="n">
@@ -2838,7 +2839,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="1" t="n">
         <v>45989</v>
       </c>
       <c r="B97" t="n">
@@ -2863,7 +2864,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="1" t="n">
         <v>45990</v>
       </c>
       <c r="B98" t="n">
@@ -2888,7 +2889,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="1" t="n">
         <v>45991</v>
       </c>
       <c r="B99" t="n">
@@ -2913,7 +2914,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="1" t="n">
         <v>45992</v>
       </c>
       <c r="B100" t="n">
@@ -2938,7 +2939,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="1" t="n">
         <v>45993</v>
       </c>
       <c r="B101" t="n">
@@ -2963,7 +2964,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="1" t="n">
         <v>45994</v>
       </c>
       <c r="B102" t="n">
@@ -2988,7 +2989,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="1" t="n">
         <v>45995</v>
       </c>
       <c r="B103" t="n">
@@ -3013,7 +3014,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="1" t="n">
         <v>45996</v>
       </c>
       <c r="B104" t="n">
@@ -3038,7 +3039,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="1" t="n">
         <v>45997</v>
       </c>
       <c r="B105" t="n">
@@ -3063,7 +3064,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="1" t="n">
         <v>45998</v>
       </c>
       <c r="B106" t="n">
@@ -3088,7 +3089,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="1" t="n">
         <v>45999</v>
       </c>
       <c r="B107" t="n">
@@ -3113,7 +3114,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="1" t="n">
         <v>46000</v>
       </c>
       <c r="B108" t="n">
@@ -3138,7 +3139,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="1" t="n">
         <v>46001</v>
       </c>
       <c r="B109" t="n">
@@ -3163,7 +3164,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="1" t="n">
         <v>46002</v>
       </c>
       <c r="B110" t="n">
@@ -3188,7 +3189,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="1" t="n">
         <v>46003</v>
       </c>
       <c r="B111" t="n">
@@ -3213,7 +3214,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="1" t="n">
         <v>46004</v>
       </c>
       <c r="B112" t="n">
@@ -3238,7 +3239,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="1" t="n">
         <v>46005</v>
       </c>
       <c r="B113" t="n">
@@ -3263,7 +3264,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="1" t="n">
         <v>46006</v>
       </c>
       <c r="B114" t="n">
@@ -3288,7 +3289,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="1" t="n">
         <v>46007</v>
       </c>
       <c r="B115" t="n">
@@ -3313,7 +3314,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="1" t="n">
         <v>46008</v>
       </c>
       <c r="B116" t="n">
@@ -3338,7 +3339,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="1" t="n">
         <v>46009</v>
       </c>
       <c r="B117" t="n">
@@ -3363,7 +3364,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="1" t="n">
         <v>46010</v>
       </c>
       <c r="B118" t="n">
@@ -3388,7 +3389,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="1" t="n">
         <v>46011</v>
       </c>
       <c r="B119" t="n">
@@ -3413,7 +3414,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="1" t="n">
         <v>46012</v>
       </c>
       <c r="B120" t="n">
@@ -3438,7 +3439,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="1" t="n">
         <v>46013</v>
       </c>
       <c r="B121" t="n">
@@ -3463,7 +3464,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="1" t="n">
         <v>46014</v>
       </c>
       <c r="B122" t="n">
@@ -3488,7 +3489,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="1" t="n">
         <v>46015</v>
       </c>
       <c r="B123" t="n">
@@ -3513,7 +3514,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="1" t="n">
         <v>46016</v>
       </c>
       <c r="B124" t="n">
@@ -3538,7 +3539,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="1" t="n">
         <v>46017</v>
       </c>
       <c r="B125" t="n">
@@ -3563,7 +3564,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="1" t="n">
         <v>46018</v>
       </c>
       <c r="B126" t="n">
@@ -3588,7 +3589,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="1" t="n">
         <v>46019</v>
       </c>
       <c r="B127" t="n">
@@ -3613,7 +3614,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="1" t="n">
         <v>46020</v>
       </c>
       <c r="B128" t="n">
@@ -3638,7 +3639,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="1" t="n">
         <v>46021</v>
       </c>
       <c r="B129" t="n">
@@ -3663,7 +3664,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="B130" t="n">
@@ -3688,7 +3689,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="1" t="n">
         <v>46023</v>
       </c>
       <c r="B131" t="n">
@@ -3713,7 +3714,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="1" t="n">
         <v>46024</v>
       </c>
       <c r="B132" t="n">
@@ -3738,7 +3739,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="1" t="n">
         <v>46025</v>
       </c>
       <c r="B133" t="n">
@@ -3763,7 +3764,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="1" t="n">
         <v>46026</v>
       </c>
       <c r="B134" t="n">
@@ -3788,7 +3789,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="1" t="n">
         <v>46027</v>
       </c>
       <c r="B135" t="n">
@@ -3813,7 +3814,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="1" t="n">
         <v>46028</v>
       </c>
       <c r="B136" t="n">
@@ -3838,7 +3839,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="1" t="n">
         <v>46029</v>
       </c>
       <c r="B137" t="n">
@@ -3863,7 +3864,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="1" t="n">
         <v>46030</v>
       </c>
       <c r="B138" t="n">
@@ -3888,7 +3889,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="1" t="n">
         <v>46031</v>
       </c>
       <c r="B139" t="n">
@@ -3913,7 +3914,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="1" t="n">
         <v>46032</v>
       </c>
       <c r="B140" t="n">
@@ -3938,7 +3939,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="1" t="n">
         <v>46033</v>
       </c>
       <c r="B141" t="n">
@@ -3963,7 +3964,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="1" t="n">
         <v>46034</v>
       </c>
       <c r="B142" t="n">
@@ -3988,7 +3989,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="1" t="n">
         <v>46035</v>
       </c>
       <c r="B143" t="n">
@@ -4013,7 +4014,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="1" t="n">
         <v>46036</v>
       </c>
       <c r="B144" t="n">
@@ -4038,7 +4039,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="1" t="n">
         <v>46037</v>
       </c>
       <c r="B145" t="n">
@@ -4063,7 +4064,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="1" t="n">
         <v>46038</v>
       </c>
       <c r="B146" t="n">
@@ -4088,7 +4089,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="1" t="n">
         <v>46039</v>
       </c>
       <c r="B147" t="n">
@@ -4113,7 +4114,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="1" t="n">
         <v>46040</v>
       </c>
       <c r="B148" t="n">
@@ -4138,7 +4139,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="1" t="n">
         <v>46041</v>
       </c>
       <c r="B149" t="n">
@@ -4163,7 +4164,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="1" t="n">
         <v>46042</v>
       </c>
       <c r="B150" t="n">
@@ -4188,7 +4189,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="1" t="n">
         <v>46043</v>
       </c>
       <c r="B151" t="n">
@@ -4213,7 +4214,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="1" t="n">
         <v>46044</v>
       </c>
       <c r="B152" t="n">
@@ -4238,7 +4239,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="1" t="n">
         <v>46045</v>
       </c>
       <c r="B153" t="n">
@@ -4263,7 +4264,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="1" t="n">
         <v>46046</v>
       </c>
       <c r="B154" t="n">
@@ -4288,7 +4289,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="1" t="n">
         <v>46047</v>
       </c>
       <c r="B155" t="n">
@@ -4313,7 +4314,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="1" t="n">
         <v>46048</v>
       </c>
       <c r="B156" t="n">
@@ -4338,7 +4339,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="1" t="n">
         <v>46049</v>
       </c>
       <c r="B157" t="n">
@@ -4363,7 +4364,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="1" t="n">
         <v>46050</v>
       </c>
       <c r="B158" t="n">
@@ -4388,7 +4389,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" s="1" t="n">
         <v>46051</v>
       </c>
       <c r="B159" t="n">
@@ -4413,7 +4414,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="1" t="n">
         <v>46052</v>
       </c>
       <c r="B160" t="n">
@@ -4438,7 +4439,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" s="1" t="n">
         <v>46053</v>
       </c>
       <c r="B161" t="n">
@@ -4463,7 +4464,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" s="1" t="n">
         <v>46054</v>
       </c>
       <c r="B162" t="n">
@@ -4488,7 +4489,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" s="1" t="n">
         <v>46055</v>
       </c>
       <c r="B163" t="n">
@@ -4513,7 +4514,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
+      <c r="A164" s="1" t="n">
         <v>46056</v>
       </c>
       <c r="B164" t="n">
@@ -4538,7 +4539,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
+      <c r="A165" s="1" t="n">
         <v>46057</v>
       </c>
       <c r="B165" t="n">
@@ -4563,7 +4564,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n">
+      <c r="A166" s="1" t="n">
         <v>46058</v>
       </c>
       <c r="B166" t="n">
@@ -4588,7 +4589,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n">
+      <c r="A167" s="1" t="n">
         <v>46059</v>
       </c>
       <c r="B167" t="n">
@@ -4613,7 +4614,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" s="1" t="n">
         <v>46060</v>
       </c>
       <c r="B168" t="n">
@@ -4638,7 +4639,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" s="1" t="n">
         <v>46061</v>
       </c>
       <c r="B169" t="n">
@@ -4663,7 +4664,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" s="1" t="n">
         <v>46062</v>
       </c>
       <c r="B170" t="n">
@@ -4688,7 +4689,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" s="1" t="n">
         <v>46063</v>
       </c>
       <c r="B171" t="n">
@@ -4713,7 +4714,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" s="1" t="n">
         <v>46064</v>
       </c>
       <c r="B172" t="n">
@@ -4738,7 +4739,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="B173" t="n">
@@ -4763,7 +4764,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="B174" t="n">
@@ -4788,7 +4789,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="B175" t="n">
@@ -4813,7 +4814,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="B176" t="n">
@@ -4838,7 +4839,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" s="1" t="n">
         <v>46069</v>
       </c>
       <c r="B177" t="n">
@@ -4863,7 +4864,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" s="1" t="n">
         <v>46070</v>
       </c>
       <c r="B178" t="n">
@@ -4888,7 +4889,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" s="1" t="n">
         <v>46071</v>
       </c>
       <c r="B179" t="n">
@@ -4913,7 +4914,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" s="1" t="n">
         <v>46072</v>
       </c>
       <c r="B180" t="n">
@@ -4938,7 +4939,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" s="1" t="n">
         <v>46073</v>
       </c>
       <c r="B181" t="n">
@@ -4963,7 +4964,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" s="1" t="n">
         <v>46074</v>
       </c>
       <c r="B182" t="n">
@@ -4988,7 +4989,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="B183" t="n">
@@ -5013,7 +5014,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" s="1" t="n">
         <v>46076</v>
       </c>
       <c r="B184" t="n">
@@ -5033,6 +5034,102 @@
       </c>
       <c r="G184" t="n">
         <v>2989.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CASH</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>USD Cash</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>571.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GC=F</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Gold Futures</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.287</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NVIDIA Corp</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tesla Inc</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/assets.xlsx
+++ b/assets.xlsx
@@ -17,17 +17,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,9 +52,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -464,7 +468,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>45894</v>
       </c>
       <c r="B2" t="n">
@@ -489,7 +493,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>45895</v>
       </c>
       <c r="B3" t="n">
@@ -514,7 +518,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>45896</v>
       </c>
       <c r="B4" t="n">
@@ -539,7 +543,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>45897</v>
       </c>
       <c r="B5" t="n">
@@ -564,7 +568,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>45898</v>
       </c>
       <c r="B6" t="n">
@@ -589,7 +593,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>45899</v>
       </c>
       <c r="B7" t="n">
@@ -614,7 +618,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>45900</v>
       </c>
       <c r="B8" t="n">
@@ -639,7 +643,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>45901</v>
       </c>
       <c r="B9" t="n">
@@ -664,7 +668,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>45902</v>
       </c>
       <c r="B10" t="n">
@@ -689,7 +693,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>45903</v>
       </c>
       <c r="B11" t="n">
@@ -714,7 +718,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>45904</v>
       </c>
       <c r="B12" t="n">
@@ -739,7 +743,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>45905</v>
       </c>
       <c r="B13" t="n">
@@ -764,7 +768,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>45906</v>
       </c>
       <c r="B14" t="n">
@@ -789,7 +793,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>45907</v>
       </c>
       <c r="B15" t="n">
@@ -814,7 +818,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>45908</v>
       </c>
       <c r="B16" t="n">
@@ -839,7 +843,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>45909</v>
       </c>
       <c r="B17" t="n">
@@ -864,7 +868,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="B18" t="n">
@@ -889,7 +893,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>45911</v>
       </c>
       <c r="B19" t="n">
@@ -914,7 +918,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>45912</v>
       </c>
       <c r="B20" t="n">
@@ -939,7 +943,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>45913</v>
       </c>
       <c r="B21" t="n">
@@ -964,7 +968,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>45914</v>
       </c>
       <c r="B22" t="n">
@@ -989,7 +993,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>45915</v>
       </c>
       <c r="B23" t="n">
@@ -1014,7 +1018,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>45916</v>
       </c>
       <c r="B24" t="n">
@@ -1039,7 +1043,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>45917</v>
       </c>
       <c r="B25" t="n">
@@ -1064,7 +1068,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>45918</v>
       </c>
       <c r="B26" t="n">
@@ -1089,7 +1093,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>45919</v>
       </c>
       <c r="B27" t="n">
@@ -1114,7 +1118,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>45920</v>
       </c>
       <c r="B28" t="n">
@@ -1139,7 +1143,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>45921</v>
       </c>
       <c r="B29" t="n">
@@ -1164,7 +1168,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>45922</v>
       </c>
       <c r="B30" t="n">
@@ -1189,7 +1193,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>45923</v>
       </c>
       <c r="B31" t="n">
@@ -1214,7 +1218,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>45924</v>
       </c>
       <c r="B32" t="n">
@@ -1239,7 +1243,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>45925</v>
       </c>
       <c r="B33" t="n">
@@ -1264,7 +1268,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>45926</v>
       </c>
       <c r="B34" t="n">
@@ -1289,7 +1293,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>45927</v>
       </c>
       <c r="B35" t="n">
@@ -1314,7 +1318,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>45928</v>
       </c>
       <c r="B36" t="n">
@@ -1339,7 +1343,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="B37" t="n">
@@ -1364,7 +1368,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>45930</v>
       </c>
       <c r="B38" t="n">
@@ -1389,7 +1393,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>45931</v>
       </c>
       <c r="B39" t="n">
@@ -1414,7 +1418,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>45932</v>
       </c>
       <c r="B40" t="n">
@@ -1439,7 +1443,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>45933</v>
       </c>
       <c r="B41" t="n">
@@ -1464,7 +1468,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>45934</v>
       </c>
       <c r="B42" t="n">
@@ -1489,7 +1493,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>45935</v>
       </c>
       <c r="B43" t="n">
@@ -1514,7 +1518,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>45936</v>
       </c>
       <c r="B44" t="n">
@@ -1539,7 +1543,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>45937</v>
       </c>
       <c r="B45" t="n">
@@ -1564,7 +1568,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>45938</v>
       </c>
       <c r="B46" t="n">
@@ -1589,7 +1593,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="B47" t="n">
@@ -1614,7 +1618,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>45940</v>
       </c>
       <c r="B48" t="n">
@@ -1639,7 +1643,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>45941</v>
       </c>
       <c r="B49" t="n">
@@ -1664,7 +1668,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>45942</v>
       </c>
       <c r="B50" t="n">
@@ -1689,7 +1693,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>45943</v>
       </c>
       <c r="B51" t="n">
@@ -1714,7 +1718,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>45944</v>
       </c>
       <c r="B52" t="n">
@@ -1739,7 +1743,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>45945</v>
       </c>
       <c r="B53" t="n">
@@ -1764,7 +1768,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>45946</v>
       </c>
       <c r="B54" t="n">
@@ -1789,7 +1793,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>45947</v>
       </c>
       <c r="B55" t="n">
@@ -1814,7 +1818,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>45948</v>
       </c>
       <c r="B56" t="n">
@@ -1839,7 +1843,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>45949</v>
       </c>
       <c r="B57" t="n">
@@ -1864,7 +1868,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>45950</v>
       </c>
       <c r="B58" t="n">
@@ -1889,7 +1893,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>45951</v>
       </c>
       <c r="B59" t="n">
@@ -1914,7 +1918,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>45952</v>
       </c>
       <c r="B60" t="n">
@@ -1939,7 +1943,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>45953</v>
       </c>
       <c r="B61" t="n">
@@ -1964,7 +1968,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>45954</v>
       </c>
       <c r="B62" t="n">
@@ -1989,7 +1993,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>45955</v>
       </c>
       <c r="B63" t="n">
@@ -2014,7 +2018,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>45956</v>
       </c>
       <c r="B64" t="n">
@@ -2039,7 +2043,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>45957</v>
       </c>
       <c r="B65" t="n">
@@ -2064,7 +2068,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>45958</v>
       </c>
       <c r="B66" t="n">
@@ -2089,7 +2093,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>45959</v>
       </c>
       <c r="B67" t="n">
@@ -2114,7 +2118,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>45960</v>
       </c>
       <c r="B68" t="n">
@@ -2139,7 +2143,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>45961</v>
       </c>
       <c r="B69" t="n">
@@ -2164,7 +2168,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>45962</v>
       </c>
       <c r="B70" t="n">
@@ -2189,7 +2193,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>45963</v>
       </c>
       <c r="B71" t="n">
@@ -2214,7 +2218,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>45964</v>
       </c>
       <c r="B72" t="n">
@@ -2239,7 +2243,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B73" t="n">
@@ -2264,7 +2268,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>45966</v>
       </c>
       <c r="B74" t="n">
@@ -2289,7 +2293,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>45967</v>
       </c>
       <c r="B75" t="n">
@@ -2314,7 +2318,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>45968</v>
       </c>
       <c r="B76" t="n">
@@ -2339,7 +2343,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>45969</v>
       </c>
       <c r="B77" t="n">
@@ -2364,7 +2368,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>45970</v>
       </c>
       <c r="B78" t="n">
@@ -2389,7 +2393,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>45971</v>
       </c>
       <c r="B79" t="n">
@@ -2414,7 +2418,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>45972</v>
       </c>
       <c r="B80" t="n">
@@ -2439,7 +2443,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>45973</v>
       </c>
       <c r="B81" t="n">
@@ -2464,7 +2468,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>45974</v>
       </c>
       <c r="B82" t="n">
@@ -2489,7 +2493,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>45975</v>
       </c>
       <c r="B83" t="n">
@@ -2514,7 +2518,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>45976</v>
       </c>
       <c r="B84" t="n">
@@ -2539,7 +2543,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>45977</v>
       </c>
       <c r="B85" t="n">
@@ -2564,7 +2568,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>45978</v>
       </c>
       <c r="B86" t="n">
@@ -2589,7 +2593,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>45979</v>
       </c>
       <c r="B87" t="n">
@@ -2614,7 +2618,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="B88" t="n">
@@ -2639,7 +2643,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="B89" t="n">
@@ -2664,7 +2668,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="B90" t="n">
@@ -2689,7 +2693,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="B91" t="n">
@@ -2714,7 +2718,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>45984</v>
       </c>
       <c r="B92" t="n">
@@ -2739,7 +2743,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="B93" t="n">
@@ -2764,7 +2768,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="B94" t="n">
@@ -2789,7 +2793,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="B95" t="n">
@@ -2814,7 +2818,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>45988</v>
       </c>
       <c r="B96" t="n">
@@ -2839,7 +2843,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>45989</v>
       </c>
       <c r="B97" t="n">
@@ -2864,7 +2868,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="B98" t="n">
@@ -2889,7 +2893,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>45991</v>
       </c>
       <c r="B99" t="n">
@@ -2914,7 +2918,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="B100" t="n">
@@ -2939,7 +2943,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>45993</v>
       </c>
       <c r="B101" t="n">
@@ -2964,7 +2968,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="2" t="n">
         <v>45994</v>
       </c>
       <c r="B102" t="n">
@@ -2989,7 +2993,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="2" t="n">
         <v>45995</v>
       </c>
       <c r="B103" t="n">
@@ -3014,7 +3018,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="2" t="n">
         <v>45996</v>
       </c>
       <c r="B104" t="n">
@@ -3039,7 +3043,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="2" t="n">
         <v>45997</v>
       </c>
       <c r="B105" t="n">
@@ -3064,7 +3068,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="2" t="n">
         <v>45998</v>
       </c>
       <c r="B106" t="n">
@@ -3089,7 +3093,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="2" t="n">
         <v>45999</v>
       </c>
       <c r="B107" t="n">
@@ -3114,7 +3118,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="2" t="n">
         <v>46000</v>
       </c>
       <c r="B108" t="n">
@@ -3139,7 +3143,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="2" t="n">
         <v>46001</v>
       </c>
       <c r="B109" t="n">
@@ -3164,7 +3168,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="2" t="n">
         <v>46002</v>
       </c>
       <c r="B110" t="n">
@@ -3189,7 +3193,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="2" t="n">
         <v>46003</v>
       </c>
       <c r="B111" t="n">
@@ -3214,7 +3218,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="2" t="n">
         <v>46004</v>
       </c>
       <c r="B112" t="n">
@@ -3239,7 +3243,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="2" t="n">
         <v>46005</v>
       </c>
       <c r="B113" t="n">
@@ -3264,7 +3268,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="2" t="n">
         <v>46006</v>
       </c>
       <c r="B114" t="n">
@@ -3289,7 +3293,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="2" t="n">
         <v>46007</v>
       </c>
       <c r="B115" t="n">
@@ -3314,7 +3318,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="2" t="n">
         <v>46008</v>
       </c>
       <c r="B116" t="n">
@@ -3339,7 +3343,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="2" t="n">
         <v>46009</v>
       </c>
       <c r="B117" t="n">
@@ -3364,7 +3368,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="2" t="n">
         <v>46010</v>
       </c>
       <c r="B118" t="n">
@@ -3389,7 +3393,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="2" t="n">
         <v>46011</v>
       </c>
       <c r="B119" t="n">
@@ -3414,7 +3418,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="2" t="n">
         <v>46012</v>
       </c>
       <c r="B120" t="n">
@@ -3439,7 +3443,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="2" t="n">
         <v>46013</v>
       </c>
       <c r="B121" t="n">
@@ -3464,7 +3468,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="2" t="n">
         <v>46014</v>
       </c>
       <c r="B122" t="n">
@@ -3489,7 +3493,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="2" t="n">
         <v>46015</v>
       </c>
       <c r="B123" t="n">
@@ -3514,7 +3518,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="2" t="n">
         <v>46016</v>
       </c>
       <c r="B124" t="n">
@@ -3539,7 +3543,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="2" t="n">
         <v>46017</v>
       </c>
       <c r="B125" t="n">
@@ -3564,7 +3568,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="2" t="n">
         <v>46018</v>
       </c>
       <c r="B126" t="n">
@@ -3589,7 +3593,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="2" t="n">
         <v>46019</v>
       </c>
       <c r="B127" t="n">
@@ -3614,7 +3618,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="2" t="n">
         <v>46020</v>
       </c>
       <c r="B128" t="n">
@@ -3639,7 +3643,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="2" t="n">
         <v>46021</v>
       </c>
       <c r="B129" t="n">
@@ -3664,7 +3668,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="2" t="n">
         <v>46022</v>
       </c>
       <c r="B130" t="n">
@@ -3689,7 +3693,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="2" t="n">
         <v>46023</v>
       </c>
       <c r="B131" t="n">
@@ -3714,7 +3718,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="2" t="n">
         <v>46024</v>
       </c>
       <c r="B132" t="n">
@@ -3739,7 +3743,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="2" t="n">
         <v>46025</v>
       </c>
       <c r="B133" t="n">
@@ -3764,7 +3768,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="2" t="n">
         <v>46026</v>
       </c>
       <c r="B134" t="n">
@@ -3789,7 +3793,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="2" t="n">
         <v>46027</v>
       </c>
       <c r="B135" t="n">
@@ -3814,7 +3818,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="2" t="n">
         <v>46028</v>
       </c>
       <c r="B136" t="n">
@@ -3839,7 +3843,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="B137" t="n">
@@ -3864,7 +3868,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="B138" t="n">
@@ -3889,7 +3893,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="B139" t="n">
@@ -3914,7 +3918,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="2" t="n">
         <v>46032</v>
       </c>
       <c r="B140" t="n">
@@ -3939,7 +3943,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="2" t="n">
         <v>46033</v>
       </c>
       <c r="B141" t="n">
@@ -3964,7 +3968,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="B142" t="n">
@@ -3989,7 +3993,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="2" t="n">
         <v>46035</v>
       </c>
       <c r="B143" t="n">
@@ -4014,7 +4018,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="B144" t="n">
@@ -4039,7 +4043,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="2" t="n">
         <v>46037</v>
       </c>
       <c r="B145" t="n">
@@ -4064,7 +4068,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="2" t="n">
         <v>46038</v>
       </c>
       <c r="B146" t="n">
@@ -4089,7 +4093,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="2" t="n">
         <v>46039</v>
       </c>
       <c r="B147" t="n">
@@ -4114,7 +4118,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="2" t="n">
         <v>46040</v>
       </c>
       <c r="B148" t="n">
@@ -4139,7 +4143,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="2" t="n">
         <v>46041</v>
       </c>
       <c r="B149" t="n">
@@ -4164,7 +4168,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="2" t="n">
         <v>46042</v>
       </c>
       <c r="B150" t="n">
@@ -4189,7 +4193,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="B151" t="n">
@@ -4214,7 +4218,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="2" t="n">
         <v>46044</v>
       </c>
       <c r="B152" t="n">
@@ -4239,7 +4243,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="2" t="n">
         <v>46045</v>
       </c>
       <c r="B153" t="n">
@@ -4264,7 +4268,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="2" t="n">
         <v>46046</v>
       </c>
       <c r="B154" t="n">
@@ -4289,7 +4293,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="2" t="n">
         <v>46047</v>
       </c>
       <c r="B155" t="n">
@@ -4314,7 +4318,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="2" t="n">
         <v>46048</v>
       </c>
       <c r="B156" t="n">
@@ -4339,7 +4343,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="2" t="n">
         <v>46049</v>
       </c>
       <c r="B157" t="n">
@@ -4364,7 +4368,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="B158" t="n">
@@ -4389,7 +4393,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="2" t="n">
         <v>46051</v>
       </c>
       <c r="B159" t="n">
@@ -4414,7 +4418,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="2" t="n">
         <v>46052</v>
       </c>
       <c r="B160" t="n">
@@ -4439,7 +4443,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="2" t="n">
         <v>46053</v>
       </c>
       <c r="B161" t="n">
@@ -4464,7 +4468,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="2" t="n">
         <v>46054</v>
       </c>
       <c r="B162" t="n">
@@ -4489,7 +4493,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="2" t="n">
         <v>46055</v>
       </c>
       <c r="B163" t="n">
@@ -4514,7 +4518,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="2" t="n">
         <v>46056</v>
       </c>
       <c r="B164" t="n">
@@ -4539,7 +4543,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="2" t="n">
         <v>46057</v>
       </c>
       <c r="B165" t="n">
@@ -4564,7 +4568,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="2" t="n">
         <v>46058</v>
       </c>
       <c r="B166" t="n">
@@ -4589,7 +4593,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="2" t="n">
         <v>46059</v>
       </c>
       <c r="B167" t="n">
@@ -4614,7 +4618,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="2" t="n">
         <v>46060</v>
       </c>
       <c r="B168" t="n">
@@ -4639,7 +4643,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="2" t="n">
         <v>46061</v>
       </c>
       <c r="B169" t="n">
@@ -4664,7 +4668,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="2" t="n">
         <v>46062</v>
       </c>
       <c r="B170" t="n">
@@ -4689,7 +4693,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="2" t="n">
         <v>46063</v>
       </c>
       <c r="B171" t="n">
@@ -4714,7 +4718,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="2" t="n">
         <v>46064</v>
       </c>
       <c r="B172" t="n">
@@ -4739,7 +4743,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="2" t="n">
         <v>46065</v>
       </c>
       <c r="B173" t="n">
@@ -4764,7 +4768,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="2" t="n">
         <v>46066</v>
       </c>
       <c r="B174" t="n">
@@ -4789,7 +4793,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="2" t="n">
         <v>46067</v>
       </c>
       <c r="B175" t="n">
@@ -4814,7 +4818,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="2" t="n">
         <v>46068</v>
       </c>
       <c r="B176" t="n">
@@ -4839,7 +4843,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="2" t="n">
         <v>46069</v>
       </c>
       <c r="B177" t="n">
@@ -4864,7 +4868,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="2" t="n">
         <v>46070</v>
       </c>
       <c r="B178" t="n">
@@ -4889,7 +4893,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="2" t="n">
         <v>46071</v>
       </c>
       <c r="B179" t="n">
@@ -4914,7 +4918,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="2" t="n">
         <v>46072</v>
       </c>
       <c r="B180" t="n">
@@ -4939,7 +4943,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="2" t="n">
         <v>46073</v>
       </c>
       <c r="B181" t="n">
@@ -4964,7 +4968,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="2" t="n">
         <v>46074</v>
       </c>
       <c r="B182" t="n">
@@ -4989,7 +4993,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="2" t="n">
         <v>46075</v>
       </c>
       <c r="B183" t="n">
@@ -5014,7 +5018,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="2" t="n">
         <v>46076</v>
       </c>
       <c r="B184" t="n">
@@ -5054,19 +5058,24 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Symbol</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>

--- a/assets.xlsx
+++ b/assets.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5038,6 +5038,114 @@
       </c>
       <c r="G184" t="n">
         <v>2989.41</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>571.73</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1483.58</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1696.46</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3751.77</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.9014</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>auto-append</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>571.73</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1498.14</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1723.54</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3793.41</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.9114</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>auto-append</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>571.73</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1500.24</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1692.01</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3763.98</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.9043</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>auto-append</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>571.73</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1500.24</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1692.01</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3763.98</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.9043</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>auto-append</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5051,7 +5159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5108,22 +5216,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.287</v>
+        <v>0.2877491817892204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>QQQ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NVIDIA Corp</t>
+          <t>Invesco QQQ Trust</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.4</v>
+        <v>1.7327</v>
       </c>
     </row>
     <row r="5">
@@ -5138,7 +5246,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1.2254</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NVIDIA Corp</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.734</v>
       </c>
     </row>
   </sheetData>

--- a/assets.xlsx
+++ b/assets.xlsx
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -656,6 +656,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="24" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -32343,7 +32346,7 @@
         </is>
       </c>
       <c r="B2" s="77" t="n">
-        <v>46075.74546296296</v>
+        <v>46082.44681172186</v>
       </c>
       <c r="C2" s="86" t="inlineStr">
         <is>
@@ -32396,7 +32399,9 @@
           <t>更新时间</t>
         </is>
       </c>
-      <c r="H3" s="99" t="n"/>
+      <c r="H3" s="122" t="n">
+        <v>46082.44681172186</v>
+      </c>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="n"/>
       <c r="K3" s="99" t="n"/>
@@ -62387,7 +62392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="121" t="n">
-        <v>46076.63113425926</v>
+        <v>46082.44681172186</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
@@ -62416,7 +62421,7 @@
     </row>
     <row r="3">
       <c r="A3" s="121" t="n">
-        <v>46076.63113425926</v>
+        <v>46082.44681172186</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
@@ -62445,7 +62450,7 @@
     </row>
     <row r="4">
       <c r="A4" s="121" t="n">
-        <v>46076.63113425926</v>
+        <v>46082.44681172186</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
@@ -62474,7 +62479,7 @@
     </row>
     <row r="5">
       <c r="A5" s="121" t="n">
-        <v>46076.63113425926</v>
+        <v>46082.44681172186</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
@@ -62503,7 +62508,7 @@
     </row>
     <row r="6">
       <c r="A6" s="121" t="n">
-        <v>46076.63113425926</v>
+        <v>46082.44681172186</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -62532,7 +62537,7 @@
     </row>
     <row r="7">
       <c r="A7" s="121" t="n">
-        <v>46076.63113425926</v>
+        <v>46082.44681172186</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>

--- a/assets.xlsx
+++ b/assets.xlsx
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -658,6 +658,9 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="24" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3586,8 +3589,10 @@
       <c r="Z1" s="51" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="58" t="n">
-        <v>45894</v>
+      <c r="A2" s="59" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
       </c>
       <c r="B2" s="57" t="n">
         <v>1.07</v>
@@ -3618,8 +3623,10 @@
       <c r="Z2" s="73" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="66" t="n">
-        <v>45895</v>
+      <c r="A3" s="67" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
       </c>
       <c r="B3" s="64" t="n">
         <v>1.07</v>
@@ -3650,8 +3657,10 @@
       <c r="Z3" s="73" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="66" t="n">
-        <v>45896</v>
+      <c r="A4" s="67" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
       </c>
       <c r="B4" s="64" t="n">
         <v>1.07</v>
@@ -3682,8 +3691,10 @@
       <c r="Z4" s="51" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="66" t="n">
-        <v>45897</v>
+      <c r="A5" s="67" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
       </c>
       <c r="B5" s="64" t="n">
         <v>1.07</v>
@@ -3714,8 +3725,10 @@
       <c r="Z5" s="51" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="66" t="n">
-        <v>45898</v>
+      <c r="A6" s="67" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
       </c>
       <c r="B6" s="64" t="n">
         <v>1.07</v>
@@ -3746,8 +3759,10 @@
       <c r="Z6" s="51" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="66" t="n">
-        <v>45899</v>
+      <c r="A7" s="67" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
       </c>
       <c r="B7" s="64" t="n">
         <v>1.07</v>
@@ -3778,8 +3793,10 @@
       <c r="Z7" s="51" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="66" t="n">
-        <v>45900</v>
+      <c r="A8" s="67" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
       </c>
       <c r="B8" s="64" t="n">
         <v>1.07</v>
@@ -3810,8 +3827,10 @@
       <c r="Z8" s="51" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="66" t="n">
-        <v>45901</v>
+      <c r="A9" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
       </c>
       <c r="B9" s="64" t="n">
         <v>1.07</v>
@@ -3842,8 +3861,10 @@
       <c r="Z9" s="51" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="66" t="n">
-        <v>45902</v>
+      <c r="A10" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="B10" s="64" t="n">
         <v>1.08</v>
@@ -3874,8 +3895,10 @@
       <c r="Z10" s="51" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="66" t="n">
-        <v>45903</v>
+      <c r="A11" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
       </c>
       <c r="B11" s="64" t="n">
         <v>1.08</v>
@@ -3906,8 +3929,10 @@
       <c r="Z11" s="51" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="66" t="n">
-        <v>45904</v>
+      <c r="A12" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
       </c>
       <c r="B12" s="64" t="n">
         <v>1.08</v>
@@ -3938,8 +3963,10 @@
       <c r="Z12" s="51" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="66" t="n">
-        <v>45905</v>
+      <c r="A13" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
       </c>
       <c r="B13" s="64" t="n">
         <v>1.08</v>
@@ -3970,8 +3997,10 @@
       <c r="Z13" s="51" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="66" t="n">
-        <v>45906</v>
+      <c r="A14" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
       </c>
       <c r="B14" s="64" t="n">
         <v>1.08</v>
@@ -4002,8 +4031,10 @@
       <c r="Z14" s="51" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="66" t="n">
-        <v>45907</v>
+      <c r="A15" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
       </c>
       <c r="B15" s="64" t="n">
         <v>1.08</v>
@@ -4034,8 +4065,10 @@
       <c r="Z15" s="51" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="66" t="n">
-        <v>45908</v>
+      <c r="A16" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
       </c>
       <c r="B16" s="64" t="n">
         <v>1.09</v>
@@ -4066,8 +4099,10 @@
       <c r="Z16" s="51" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="66" t="n">
-        <v>45909</v>
+      <c r="A17" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
       </c>
       <c r="B17" s="64" t="n">
         <v>1.09</v>
@@ -4098,8 +4133,10 @@
       <c r="Z17" s="51" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="66" t="n">
-        <v>45910</v>
+      <c r="A18" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
       </c>
       <c r="B18" s="64" t="n">
         <v>1.09</v>
@@ -4130,8 +4167,10 @@
       <c r="Z18" s="51" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="66" t="n">
-        <v>45911</v>
+      <c r="A19" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
       </c>
       <c r="B19" s="64" t="n">
         <v>1.09</v>
@@ -4162,8 +4201,10 @@
       <c r="Z19" s="51" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="66" t="n">
-        <v>45912</v>
+      <c r="A20" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
       </c>
       <c r="B20" s="64" t="n">
         <v>1.09</v>
@@ -4194,8 +4235,10 @@
       <c r="Z20" s="51" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="66" t="n">
-        <v>45913</v>
+      <c r="A21" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
       </c>
       <c r="B21" s="64" t="n">
         <v>1.09</v>
@@ -4226,8 +4269,10 @@
       <c r="Z21" s="51" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="66" t="n">
-        <v>45914</v>
+      <c r="A22" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
       </c>
       <c r="B22" s="64" t="n">
         <v>1.09</v>
@@ -4258,8 +4303,10 @@
       <c r="Z22" s="51" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="66" t="n">
-        <v>45915</v>
+      <c r="A23" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
       </c>
       <c r="B23" s="64" t="n">
         <v>1.09</v>
@@ -4290,8 +4337,10 @@
       <c r="Z23" s="51" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="66" t="n">
-        <v>45916</v>
+      <c r="A24" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
       </c>
       <c r="B24" s="64" t="n">
         <v>1.09</v>
@@ -4322,8 +4371,10 @@
       <c r="Z24" s="51" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="66" t="n">
-        <v>45917</v>
+      <c r="A25" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
       </c>
       <c r="B25" s="64" t="n">
         <v>1.09</v>
@@ -4354,8 +4405,10 @@
       <c r="Z25" s="51" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="66" t="n">
-        <v>45918</v>
+      <c r="A26" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
       </c>
       <c r="B26" s="64" t="n">
         <v>1.09</v>
@@ -4386,8 +4439,10 @@
       <c r="Z26" s="51" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="66" t="n">
-        <v>45919</v>
+      <c r="A27" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
       </c>
       <c r="B27" s="64" t="n">
         <v>1.09</v>
@@ -4418,8 +4473,10 @@
       <c r="Z27" s="51" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="66" t="n">
-        <v>45920</v>
+      <c r="A28" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
       </c>
       <c r="B28" s="64" t="n">
         <v>1.09</v>
@@ -4450,8 +4507,10 @@
       <c r="Z28" s="51" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="66" t="n">
-        <v>45921</v>
+      <c r="A29" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
       </c>
       <c r="B29" s="64" t="n">
         <v>1.09</v>
@@ -4482,8 +4541,10 @@
       <c r="Z29" s="51" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="66" t="n">
-        <v>45922</v>
+      <c r="A30" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
       </c>
       <c r="B30" s="64" t="n">
         <v>1.09</v>
@@ -4514,8 +4575,10 @@
       <c r="Z30" s="51" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="66" t="n">
-        <v>45923</v>
+      <c r="A31" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
       </c>
       <c r="B31" s="64" t="n">
         <v>1.1</v>
@@ -4546,8 +4609,10 @@
       <c r="Z31" s="51" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="66" t="n">
-        <v>45924</v>
+      <c r="A32" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
       </c>
       <c r="B32" s="64" t="n">
         <v>1.09</v>
@@ -4578,8 +4643,10 @@
       <c r="Z32" s="51" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="66" t="n">
-        <v>45925</v>
+      <c r="A33" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
       </c>
       <c r="B33" s="64" t="n">
         <v>1.09</v>
@@ -4610,8 +4677,10 @@
       <c r="Z33" s="51" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="66" t="n">
-        <v>45926</v>
+      <c r="A34" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
       </c>
       <c r="B34" s="64" t="n">
         <v>1.09</v>
@@ -4642,8 +4711,10 @@
       <c r="Z34" s="51" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="66" t="n">
-        <v>45927</v>
+      <c r="A35" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
       </c>
       <c r="B35" s="64" t="n">
         <v>1.09</v>
@@ -4674,8 +4745,10 @@
       <c r="Z35" s="51" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="66" t="n">
-        <v>45928</v>
+      <c r="A36" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
       </c>
       <c r="B36" s="64" t="n">
         <v>1.09</v>
@@ -4706,8 +4779,10 @@
       <c r="Z36" s="51" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="66" t="n">
-        <v>45929</v>
+      <c r="A37" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
       </c>
       <c r="B37" s="64" t="n">
         <v>1.1</v>
@@ -4738,8 +4813,10 @@
       <c r="Z37" s="51" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="66" t="n">
-        <v>45930</v>
+      <c r="A38" s="67" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
       </c>
       <c r="B38" s="64" t="n">
         <v>1.1</v>
@@ -4770,8 +4847,10 @@
       <c r="Z38" s="51" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="66" t="n">
-        <v>45931</v>
+      <c r="A39" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
       </c>
       <c r="B39" s="64" t="n">
         <v>1.1</v>
@@ -4802,8 +4881,10 @@
       <c r="Z39" s="51" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="66" t="n">
-        <v>45932</v>
+      <c r="A40" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
       </c>
       <c r="B40" s="64" t="n">
         <v>1.1</v>
@@ -4834,8 +4915,10 @@
       <c r="Z40" s="51" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="66" t="n">
-        <v>45933</v>
+      <c r="A41" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
       </c>
       <c r="B41" s="64" t="n">
         <v>1.1</v>
@@ -4866,8 +4949,10 @@
       <c r="Z41" s="51" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="66" t="n">
-        <v>45934</v>
+      <c r="A42" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
       </c>
       <c r="B42" s="64" t="n">
         <v>1.1</v>
@@ -4898,8 +4983,10 @@
       <c r="Z42" s="51" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="66" t="n">
-        <v>45935</v>
+      <c r="A43" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
       </c>
       <c r="B43" s="64" t="n">
         <v>1.1</v>
@@ -4930,8 +5017,10 @@
       <c r="Z43" s="51" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="66" t="n">
-        <v>45936</v>
+      <c r="A44" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
       </c>
       <c r="B44" s="64" t="n">
         <v>1.11</v>
@@ -4962,8 +5051,10 @@
       <c r="Z44" s="51" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="66" t="n">
-        <v>45937</v>
+      <c r="A45" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
       </c>
       <c r="B45" s="64" t="n">
         <v>1.11</v>
@@ -4994,8 +5085,10 @@
       <c r="Z45" s="51" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="66" t="n">
-        <v>45938</v>
+      <c r="A46" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
       </c>
       <c r="B46" s="64" t="n">
         <v>1.11</v>
@@ -5026,8 +5119,10 @@
       <c r="Z46" s="51" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="66" t="n">
-        <v>45939</v>
+      <c r="A47" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
       </c>
       <c r="B47" s="64" t="n">
         <v>1.11</v>
@@ -5058,8 +5153,10 @@
       <c r="Z47" s="51" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="66" t="n">
-        <v>45940</v>
+      <c r="A48" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
       </c>
       <c r="B48" s="64" t="n">
         <v>1.11</v>
@@ -5090,8 +5187,10 @@
       <c r="Z48" s="51" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="66" t="n">
-        <v>45941</v>
+      <c r="A49" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
       </c>
       <c r="B49" s="64" t="n">
         <v>1.11</v>
@@ -5122,8 +5221,10 @@
       <c r="Z49" s="51" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="66" t="n">
-        <v>45942</v>
+      <c r="A50" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
       </c>
       <c r="B50" s="64" t="n">
         <v>1.11</v>
@@ -5154,8 +5255,10 @@
       <c r="Z50" s="51" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="66" t="n">
-        <v>45943</v>
+      <c r="A51" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
       </c>
       <c r="B51" s="64" t="n">
         <v>1.12</v>
@@ -5186,8 +5289,10 @@
       <c r="Z51" s="51" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="66" t="n">
-        <v>45944</v>
+      <c r="A52" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
       </c>
       <c r="B52" s="64" t="n">
         <v>1.12</v>
@@ -5218,8 +5323,10 @@
       <c r="Z52" s="51" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="66" t="n">
-        <v>45945</v>
+      <c r="A53" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
       </c>
       <c r="B53" s="64" t="n">
         <v>1.12</v>
@@ -5250,8 +5357,10 @@
       <c r="Z53" s="51" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="66" t="n">
-        <v>45946</v>
+      <c r="A54" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
       </c>
       <c r="B54" s="64" t="n">
         <v>1.13</v>
@@ -5282,8 +5391,10 @@
       <c r="Z54" s="51" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="66" t="n">
-        <v>45947</v>
+      <c r="A55" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
       </c>
       <c r="B55" s="64" t="n">
         <v>1.12</v>
@@ -5314,8 +5425,10 @@
       <c r="Z55" s="51" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="66" t="n">
-        <v>45948</v>
+      <c r="A56" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
       </c>
       <c r="B56" s="64" t="n">
         <v>1.12</v>
@@ -5346,8 +5459,10 @@
       <c r="Z56" s="51" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="66" t="n">
-        <v>45949</v>
+      <c r="A57" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
       </c>
       <c r="B57" s="64" t="n">
         <v>1.12</v>
@@ -5378,8 +5493,10 @@
       <c r="Z57" s="51" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="66" t="n">
-        <v>45950</v>
+      <c r="A58" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
       </c>
       <c r="B58" s="64" t="n">
         <v>1.13</v>
@@ -5410,8 +5527,10 @@
       <c r="Z58" s="51" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="66" t="n">
-        <v>45951</v>
+      <c r="A59" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
       </c>
       <c r="B59" s="64" t="n">
         <v>1.12</v>
@@ -5442,8 +5561,10 @@
       <c r="Z59" s="51" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="66" t="n">
-        <v>45952</v>
+      <c r="A60" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
       </c>
       <c r="B60" s="64" t="n">
         <v>1.11</v>
@@ -5474,8 +5595,10 @@
       <c r="Z60" s="51" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="66" t="n">
-        <v>45953</v>
+      <c r="A61" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
       </c>
       <c r="B61" s="64" t="n">
         <v>1.12</v>
@@ -5506,8 +5629,10 @@
       <c r="Z61" s="51" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="66" t="n">
-        <v>45954</v>
+      <c r="A62" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
       </c>
       <c r="B62" s="64" t="n">
         <v>1.12</v>
@@ -5538,8 +5663,10 @@
       <c r="Z62" s="51" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="66" t="n">
-        <v>45955</v>
+      <c r="A63" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
       </c>
       <c r="B63" s="64" t="n">
         <v>1.12</v>
@@ -5570,8 +5697,10 @@
       <c r="Z63" s="51" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="66" t="n">
-        <v>45956</v>
+      <c r="A64" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
       </c>
       <c r="B64" s="64" t="n">
         <v>1.12</v>
@@ -5602,8 +5731,10 @@
       <c r="Z64" s="51" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="66" t="n">
-        <v>45957</v>
+      <c r="A65" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
       </c>
       <c r="B65" s="64" t="n">
         <v>1.11</v>
@@ -5634,8 +5765,10 @@
       <c r="Z65" s="51" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="66" t="n">
-        <v>45958</v>
+      <c r="A66" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
       </c>
       <c r="B66" s="64" t="n">
         <v>1.11</v>
@@ -5666,8 +5799,10 @@
       <c r="Z66" s="51" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="66" t="n">
-        <v>45959</v>
+      <c r="A67" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
       </c>
       <c r="B67" s="64" t="n">
         <v>1.11</v>
@@ -5698,8 +5833,10 @@
       <c r="Z67" s="51" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="66" t="n">
-        <v>45960</v>
+      <c r="A68" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
       </c>
       <c r="B68" s="64" t="n">
         <v>1.11</v>
@@ -5730,8 +5867,10 @@
       <c r="Z68" s="51" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="66" t="n">
-        <v>45961</v>
+      <c r="A69" s="67" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
       </c>
       <c r="B69" s="64" t="n">
         <v>1.11</v>
@@ -5762,8 +5901,10 @@
       <c r="Z69" s="51" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="66" t="n">
-        <v>45962</v>
+      <c r="A70" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
       </c>
       <c r="B70" s="64" t="n">
         <v>1.11</v>
@@ -5794,8 +5935,10 @@
       <c r="Z70" s="51" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="66" t="n">
-        <v>45963</v>
+      <c r="A71" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
       </c>
       <c r="B71" s="64" t="n">
         <v>1.11</v>
@@ -5826,8 +5969,10 @@
       <c r="Z71" s="51" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="66" t="n">
-        <v>45964</v>
+      <c r="A72" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
       </c>
       <c r="B72" s="64" t="n">
         <v>1.11</v>
@@ -5858,8 +6003,10 @@
       <c r="Z72" s="51" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="66" t="n">
-        <v>45965</v>
+      <c r="A73" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
       </c>
       <c r="B73" s="64" t="n">
         <v>1.11</v>
@@ -5890,8 +6037,10 @@
       <c r="Z73" s="51" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="66" t="n">
-        <v>45966</v>
+      <c r="A74" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
       </c>
       <c r="B74" s="64" t="n">
         <v>1.11</v>
@@ -5922,8 +6071,10 @@
       <c r="Z74" s="51" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="66" t="n">
-        <v>45967</v>
+      <c r="A75" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
       </c>
       <c r="B75" s="64" t="n">
         <v>1.11</v>
@@ -5954,8 +6105,10 @@
       <c r="Z75" s="51" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="66" t="n">
-        <v>45968</v>
+      <c r="A76" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
       </c>
       <c r="B76" s="64" t="n">
         <v>1.11</v>
@@ -5986,8 +6139,10 @@
       <c r="Z76" s="51" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="66" t="n">
-        <v>45969</v>
+      <c r="A77" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
       </c>
       <c r="B77" s="64" t="n">
         <v>1.11</v>
@@ -6018,8 +6173,10 @@
       <c r="Z77" s="51" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="66" t="n">
-        <v>45970</v>
+      <c r="A78" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
       </c>
       <c r="B78" s="64" t="n">
         <v>1.11</v>
@@ -6050,8 +6207,10 @@
       <c r="Z78" s="51" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="66" t="n">
-        <v>45971</v>
+      <c r="A79" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
       </c>
       <c r="B79" s="64" t="n">
         <v>1.12</v>
@@ -6082,8 +6241,10 @@
       <c r="Z79" s="51" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="66" t="n">
-        <v>45972</v>
+      <c r="A80" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
       </c>
       <c r="B80" s="64" t="n">
         <v>1.12</v>
@@ -6114,8 +6275,10 @@
       <c r="Z80" s="51" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="66" t="n">
-        <v>45973</v>
+      <c r="A81" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
       </c>
       <c r="B81" s="64" t="n">
         <v>1.12</v>
@@ -6146,8 +6309,10 @@
       <c r="Z81" s="51" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="66" t="n">
-        <v>45974</v>
+      <c r="A82" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
       </c>
       <c r="B82" s="64" t="n">
         <v>1.12</v>
@@ -6178,8 +6343,10 @@
       <c r="Z82" s="51" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="66" t="n">
-        <v>45975</v>
+      <c r="A83" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
       </c>
       <c r="B83" s="64" t="n">
         <v>1.12</v>
@@ -6210,8 +6377,10 @@
       <c r="Z83" s="51" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="66" t="n">
-        <v>45976</v>
+      <c r="A84" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
       </c>
       <c r="B84" s="64" t="n">
         <v>1.12</v>
@@ -6242,8 +6411,10 @@
       <c r="Z84" s="51" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="66" t="n">
-        <v>45977</v>
+      <c r="A85" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
       </c>
       <c r="B85" s="64" t="n">
         <v>1.12</v>
@@ -6274,8 +6445,10 @@
       <c r="Z85" s="51" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="66" t="n">
-        <v>45978</v>
+      <c r="A86" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
       </c>
       <c r="B86" s="64" t="n">
         <v>1.12</v>
@@ -6306,8 +6479,10 @@
       <c r="Z86" s="51" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="66" t="n">
-        <v>45979</v>
+      <c r="A87" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
       </c>
       <c r="B87" s="64" t="n">
         <v>1.11</v>
@@ -6338,8 +6513,10 @@
       <c r="Z87" s="51" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="66" t="n">
-        <v>45980</v>
+      <c r="A88" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
       </c>
       <c r="B88" s="64" t="n">
         <v>1.12</v>
@@ -6370,8 +6547,10 @@
       <c r="Z88" s="51" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="66" t="n">
-        <v>45981</v>
+      <c r="A89" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
       </c>
       <c r="B89" s="64" t="n">
         <v>1.11</v>
@@ -6402,8 +6581,10 @@
       <c r="Z89" s="51" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="66" t="n">
-        <v>45982</v>
+      <c r="A90" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
       </c>
       <c r="B90" s="64" t="n">
         <v>1.12</v>
@@ -6434,8 +6615,10 @@
       <c r="Z90" s="51" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="66" t="n">
-        <v>45983</v>
+      <c r="A91" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
       </c>
       <c r="B91" s="64" t="n">
         <v>1.12</v>
@@ -6466,8 +6649,10 @@
       <c r="Z91" s="51" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="66" t="n">
-        <v>45984</v>
+      <c r="A92" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
       </c>
       <c r="B92" s="64" t="n">
         <v>1.12</v>
@@ -6498,8 +6683,10 @@
       <c r="Z92" s="51" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="66" t="n">
-        <v>45985</v>
+      <c r="A93" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
       </c>
       <c r="B93" s="64" t="n">
         <v>1.12</v>
@@ -6530,8 +6717,10 @@
       <c r="Z93" s="51" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="66" t="n">
-        <v>45986</v>
+      <c r="A94" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
       </c>
       <c r="B94" s="64" t="n">
         <v>1.12</v>
@@ -6562,8 +6751,10 @@
       <c r="Z94" s="51" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="66" t="n">
-        <v>45987</v>
+      <c r="A95" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
       </c>
       <c r="B95" s="64" t="n">
         <v>1.12</v>
@@ -6594,8 +6785,10 @@
       <c r="Z95" s="51" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="66" t="n">
-        <v>45988</v>
+      <c r="A96" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
       </c>
       <c r="B96" s="64" t="n">
         <v>1.12</v>
@@ -6626,8 +6819,10 @@
       <c r="Z96" s="51" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="66" t="n">
-        <v>45989</v>
+      <c r="A97" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
       </c>
       <c r="B97" s="64" t="n">
         <v>1.13</v>
@@ -6658,8 +6853,10 @@
       <c r="Z97" s="51" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="66" t="n">
-        <v>45990</v>
+      <c r="A98" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
       </c>
       <c r="B98" s="64" t="n">
         <v>1.13</v>
@@ -6690,8 +6887,10 @@
       <c r="Z98" s="51" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="66" t="n">
-        <v>45991</v>
+      <c r="A99" s="67" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
       </c>
       <c r="B99" s="64" t="n">
         <v>1.13</v>
@@ -6722,8 +6921,10 @@
       <c r="Z99" s="51" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="66" t="n">
-        <v>45992</v>
+      <c r="A100" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
       </c>
       <c r="B100" s="64" t="n">
         <v>1.13</v>
@@ -6754,8 +6955,10 @@
       <c r="Z100" s="51" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="66" t="n">
-        <v>45993</v>
+      <c r="A101" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
       </c>
       <c r="B101" s="64" t="n">
         <v>1.12</v>
@@ -6786,8 +6989,10 @@
       <c r="Z101" s="51" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="66" t="n">
-        <v>45994</v>
+      <c r="A102" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
       </c>
       <c r="B102" s="64" t="n">
         <v>1.12</v>
@@ -6818,8 +7023,10 @@
       <c r="Z102" s="51" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="66" t="n">
-        <v>45995</v>
+      <c r="A103" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
       </c>
       <c r="B103" s="64" t="n">
         <v>1.12</v>
@@ -6850,8 +7057,10 @@
       <c r="Z103" s="51" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="66" t="n">
-        <v>45996</v>
+      <c r="A104" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
       </c>
       <c r="B104" s="64" t="n">
         <v>1.13</v>
@@ -6882,8 +7091,10 @@
       <c r="Z104" s="51" t="n"/>
     </row>
     <row r="105">
-      <c r="A105" s="66" t="n">
-        <v>45997</v>
+      <c r="A105" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
       </c>
       <c r="B105" s="64" t="n">
         <v>1.13</v>
@@ -6914,8 +7125,10 @@
       <c r="Z105" s="51" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="66" t="n">
-        <v>45998</v>
+      <c r="A106" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
       </c>
       <c r="B106" s="64" t="n">
         <v>1.13</v>
@@ -6946,8 +7159,10 @@
       <c r="Z106" s="51" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="66" t="n">
-        <v>45999</v>
+      <c r="A107" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
       </c>
       <c r="B107" s="64" t="n">
         <v>1.13</v>
@@ -6978,8 +7193,10 @@
       <c r="Z107" s="51" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" s="66" t="n">
-        <v>46000</v>
+      <c r="A108" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
       </c>
       <c r="B108" s="64" t="n">
         <v>1.13</v>
@@ -7010,8 +7227,10 @@
       <c r="Z108" s="51" t="n"/>
     </row>
     <row r="109">
-      <c r="A109" s="66" t="n">
-        <v>46001</v>
+      <c r="A109" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
       </c>
       <c r="B109" s="64" t="n">
         <v>1.13</v>
@@ -7042,8 +7261,10 @@
       <c r="Z109" s="51" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" s="66" t="n">
-        <v>46002</v>
+      <c r="A110" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
       </c>
       <c r="B110" s="64" t="n">
         <v>1.14</v>
@@ -7074,8 +7295,10 @@
       <c r="Z110" s="51" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" s="66" t="n">
-        <v>46003</v>
+      <c r="A111" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
       </c>
       <c r="B111" s="64" t="n">
         <v>1.15</v>
@@ -7106,8 +7329,10 @@
       <c r="Z111" s="51" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="66" t="n">
-        <v>46004</v>
+      <c r="A112" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
       </c>
       <c r="B112" s="64" t="n">
         <v>1.15</v>
@@ -7138,8 +7363,10 @@
       <c r="Z112" s="51" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" s="66" t="n">
-        <v>46005</v>
+      <c r="A113" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
       </c>
       <c r="B113" s="64" t="n">
         <v>1.15</v>
@@ -7170,8 +7397,10 @@
       <c r="Z113" s="51" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="66" t="n">
-        <v>46006</v>
+      <c r="A114" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
       </c>
       <c r="B114" s="64" t="n">
         <v>1.15</v>
@@ -7202,8 +7431,10 @@
       <c r="Z114" s="51" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="66" t="n">
-        <v>46007</v>
+      <c r="A115" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
       </c>
       <c r="B115" s="64" t="n">
         <v>1.16</v>
@@ -7234,8 +7465,10 @@
       <c r="Z115" s="51" t="n"/>
     </row>
     <row r="116">
-      <c r="A116" s="66" t="n">
-        <v>46008</v>
+      <c r="A116" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
       </c>
       <c r="B116" s="64" t="n">
         <v>1.16</v>
@@ -7266,8 +7499,10 @@
       <c r="Z116" s="51" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="66" t="n">
-        <v>46009</v>
+      <c r="A117" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
       </c>
       <c r="B117" s="64" t="n">
         <v>1.16</v>
@@ -7298,8 +7533,10 @@
       <c r="Z117" s="51" t="n"/>
     </row>
     <row r="118">
-      <c r="A118" s="66" t="n">
-        <v>46010</v>
+      <c r="A118" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
       </c>
       <c r="B118" s="64" t="n">
         <v>1.17</v>
@@ -7330,8 +7567,10 @@
       <c r="Z118" s="51" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" s="66" t="n">
-        <v>46011</v>
+      <c r="A119" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
       </c>
       <c r="B119" s="64" t="n">
         <v>1.17</v>
@@ -7362,8 +7601,10 @@
       <c r="Z119" s="51" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" s="66" t="n">
-        <v>46012</v>
+      <c r="A120" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
       </c>
       <c r="B120" s="64" t="n">
         <v>1.17</v>
@@ -7394,8 +7635,10 @@
       <c r="Z120" s="51" t="n"/>
     </row>
     <row r="121">
-      <c r="A121" s="66" t="n">
-        <v>46013</v>
+      <c r="A121" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
       </c>
       <c r="B121" s="64" t="n">
         <v>1.19</v>
@@ -7426,8 +7669,10 @@
       <c r="Z121" s="51" t="n"/>
     </row>
     <row r="122">
-      <c r="A122" s="66" t="n">
-        <v>46014</v>
+      <c r="A122" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
       </c>
       <c r="B122" s="64" t="n">
         <v>1.19</v>
@@ -7458,8 +7703,10 @@
       <c r="Z122" s="51" t="n"/>
     </row>
     <row r="123">
-      <c r="A123" s="66" t="n">
-        <v>46015</v>
+      <c r="A123" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
       </c>
       <c r="B123" s="64" t="n">
         <v>1.2</v>
@@ -7490,8 +7737,10 @@
       <c r="Z123" s="51" t="n"/>
     </row>
     <row r="124">
-      <c r="A124" s="66" t="n">
-        <v>46016</v>
+      <c r="A124" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
       </c>
       <c r="B124" s="64" t="n">
         <v>1.2</v>
@@ -7522,8 +7771,10 @@
       <c r="Z124" s="51" t="n"/>
     </row>
     <row r="125">
-      <c r="A125" s="66" t="n">
-        <v>46017</v>
+      <c r="A125" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
       </c>
       <c r="B125" s="64" t="n">
         <v>1.2</v>
@@ -7554,8 +7805,10 @@
       <c r="Z125" s="51" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" s="66" t="n">
-        <v>46018</v>
+      <c r="A126" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
       </c>
       <c r="B126" s="64" t="n">
         <v>1.2</v>
@@ -7586,8 +7839,10 @@
       <c r="Z126" s="51" t="n"/>
     </row>
     <row r="127">
-      <c r="A127" s="66" t="n">
-        <v>46019</v>
+      <c r="A127" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
       </c>
       <c r="B127" s="64" t="n">
         <v>1.2</v>
@@ -7618,8 +7873,10 @@
       <c r="Z127" s="51" t="n"/>
     </row>
     <row r="128">
-      <c r="A128" s="66" t="n">
-        <v>46020</v>
+      <c r="A128" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
       </c>
       <c r="B128" s="64" t="n">
         <v>1.19</v>
@@ -7650,8 +7907,10 @@
       <c r="Z128" s="51" t="n"/>
     </row>
     <row r="129">
-      <c r="A129" s="66" t="n">
-        <v>46021</v>
+      <c r="A129" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
       </c>
       <c r="B129" s="64" t="n">
         <v>1.19</v>
@@ -7682,8 +7941,10 @@
       <c r="Z129" s="51" t="n"/>
     </row>
     <row r="130">
-      <c r="A130" s="66" t="n">
-        <v>46022</v>
+      <c r="A130" s="67" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
       </c>
       <c r="B130" s="64" t="n">
         <v>1.19</v>
@@ -7714,8 +7975,10 @@
       <c r="Z130" s="51" t="n"/>
     </row>
     <row r="131">
-      <c r="A131" s="66" t="n">
-        <v>46023</v>
+      <c r="A131" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
       </c>
       <c r="B131" s="64" t="n">
         <v>1.19</v>
@@ -7746,8 +8009,10 @@
       <c r="Z131" s="51" t="n"/>
     </row>
     <row r="132">
-      <c r="A132" s="66" t="n">
-        <v>46024</v>
+      <c r="A132" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
       </c>
       <c r="B132" s="64" t="n">
         <v>1.19</v>
@@ -7778,8 +8043,10 @@
       <c r="Z132" s="51" t="n"/>
     </row>
     <row r="133">
-      <c r="A133" s="66" t="n">
-        <v>46025</v>
+      <c r="A133" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
       </c>
       <c r="B133" s="64" t="n">
         <v>1.19</v>
@@ -7810,8 +8077,10 @@
       <c r="Z133" s="51" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" s="66" t="n">
-        <v>46026</v>
+      <c r="A134" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
       </c>
       <c r="B134" s="64" t="n">
         <v>1.19</v>
@@ -7842,8 +8111,10 @@
       <c r="Z134" s="51" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" s="66" t="n">
-        <v>46027</v>
+      <c r="A135" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
       </c>
       <c r="B135" s="64" t="n">
         <v>1.2</v>
@@ -7874,8 +8145,10 @@
       <c r="Z135" s="51" t="n"/>
     </row>
     <row r="136">
-      <c r="A136" s="66" t="n">
-        <v>46028</v>
+      <c r="A136" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
       </c>
       <c r="B136" s="64" t="n">
         <v>1.2</v>
@@ -7906,8 +8179,10 @@
       <c r="Z136" s="51" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" s="66" t="n">
-        <v>46029</v>
+      <c r="A137" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
       </c>
       <c r="B137" s="64" t="n">
         <v>1.2</v>
@@ -7938,8 +8213,10 @@
       <c r="Z137" s="51" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" s="66" t="n">
-        <v>46030</v>
+      <c r="A138" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
       </c>
       <c r="B138" s="64" t="n">
         <v>1.2</v>
@@ -7970,8 +8247,10 @@
       <c r="Z138" s="51" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" s="66" t="n">
-        <v>46031</v>
+      <c r="A139" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
       </c>
       <c r="B139" s="64" t="n">
         <v>1.2</v>
@@ -8002,8 +8281,10 @@
       <c r="Z139" s="51" t="n"/>
     </row>
     <row r="140">
-      <c r="A140" s="66" t="n">
-        <v>46032</v>
+      <c r="A140" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
       </c>
       <c r="B140" s="64" t="n">
         <v>1.2</v>
@@ -8034,8 +8315,10 @@
       <c r="Z140" s="51" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" s="66" t="n">
-        <v>46033</v>
+      <c r="A141" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
       </c>
       <c r="B141" s="64" t="n">
         <v>1.2</v>
@@ -8066,8 +8349,10 @@
       <c r="Z141" s="51" t="n"/>
     </row>
     <row r="142">
-      <c r="A142" s="66" t="n">
-        <v>46034</v>
+      <c r="A142" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
       </c>
       <c r="B142" s="64" t="n">
         <v>1.21</v>
@@ -8098,8 +8383,10 @@
       <c r="Z142" s="51" t="n"/>
     </row>
     <row r="143">
-      <c r="A143" s="66" t="n">
-        <v>46035</v>
+      <c r="A143" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
       </c>
       <c r="B143" s="64" t="n">
         <v>1.21</v>
@@ -8130,8 +8417,10 @@
       <c r="Z143" s="51" t="n"/>
     </row>
     <row r="144">
-      <c r="A144" s="66" t="n">
-        <v>46036</v>
+      <c r="A144" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
       </c>
       <c r="B144" s="64" t="n">
         <v>1.21</v>
@@ -8162,8 +8451,10 @@
       <c r="Z144" s="51" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" s="66" t="n">
-        <v>46037</v>
+      <c r="A145" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
       </c>
       <c r="B145" s="64" t="n">
         <v>1.21</v>
@@ -8194,8 +8485,10 @@
       <c r="Z145" s="51" t="n"/>
     </row>
     <row r="146">
-      <c r="A146" s="66" t="n">
-        <v>46038</v>
+      <c r="A146" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
       </c>
       <c r="B146" s="64" t="n">
         <v>1.21</v>
@@ -8226,8 +8519,10 @@
       <c r="Z146" s="51" t="n"/>
     </row>
     <row r="147">
-      <c r="A147" s="66" t="n">
-        <v>46039</v>
+      <c r="A147" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
       </c>
       <c r="B147" s="64" t="n">
         <v>1.21</v>
@@ -8258,8 +8553,10 @@
       <c r="Z147" s="51" t="n"/>
     </row>
     <row r="148">
-      <c r="A148" s="66" t="n">
-        <v>46040</v>
+      <c r="A148" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
       </c>
       <c r="B148" s="64" t="n">
         <v>1.21</v>
@@ -8290,8 +8587,10 @@
       <c r="Z148" s="51" t="n"/>
     </row>
     <row r="149">
-      <c r="A149" s="66" t="n">
-        <v>46041</v>
+      <c r="A149" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
       </c>
       <c r="B149" s="64" t="n">
         <v>1.21</v>
@@ -8322,8 +8621,10 @@
       <c r="Z149" s="51" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" s="66" t="n">
-        <v>46042</v>
+      <c r="A150" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
       </c>
       <c r="B150" s="64" t="n">
         <v>1.21</v>
@@ -8354,8 +8655,10 @@
       <c r="Z150" s="51" t="n"/>
     </row>
     <row r="151">
-      <c r="A151" s="66" t="n">
-        <v>46043</v>
+      <c r="A151" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
       </c>
       <c r="B151" s="64" t="n">
         <v>1.22</v>
@@ -8386,8 +8689,10 @@
       <c r="Z151" s="51" t="n"/>
     </row>
     <row r="152">
-      <c r="A152" s="66" t="n">
-        <v>46044</v>
+      <c r="A152" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
       </c>
       <c r="B152" s="64" t="n">
         <v>1.23</v>
@@ -8418,8 +8723,10 @@
       <c r="Z152" s="51" t="n"/>
     </row>
     <row r="153">
-      <c r="A153" s="66" t="n">
-        <v>46045</v>
+      <c r="A153" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
       </c>
       <c r="B153" s="64" t="n">
         <v>1.24</v>
@@ -8450,8 +8757,10 @@
       <c r="Z153" s="51" t="n"/>
     </row>
     <row r="154">
-      <c r="A154" s="66" t="n">
-        <v>46046</v>
+      <c r="A154" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
       </c>
       <c r="B154" s="64" t="n">
         <v>1.24</v>
@@ -8482,8 +8791,10 @@
       <c r="Z154" s="51" t="n"/>
     </row>
     <row r="155">
-      <c r="A155" s="66" t="n">
-        <v>46047</v>
+      <c r="A155" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
       </c>
       <c r="B155" s="64" t="n">
         <v>1.24</v>
@@ -8514,8 +8825,10 @@
       <c r="Z155" s="51" t="n"/>
     </row>
     <row r="156">
-      <c r="A156" s="66" t="n">
-        <v>46048</v>
+      <c r="A156" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
       </c>
       <c r="B156" s="64" t="n">
         <v>1.24</v>
@@ -8546,8 +8859,10 @@
       <c r="Z156" s="51" t="n"/>
     </row>
     <row r="157">
-      <c r="A157" s="66" t="n">
-        <v>46049</v>
+      <c r="A157" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
       </c>
       <c r="B157" s="64" t="n">
         <v>1.24</v>
@@ -8578,8 +8893,10 @@
       <c r="Z157" s="51" t="n"/>
     </row>
     <row r="158">
-      <c r="A158" s="66" t="n">
-        <v>46050</v>
+      <c r="A158" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
       </c>
       <c r="B158" s="64" t="n">
         <v>1.26</v>
@@ -8610,8 +8927,10 @@
       <c r="Z158" s="51" t="n"/>
     </row>
     <row r="159">
-      <c r="A159" s="66" t="n">
-        <v>46051</v>
+      <c r="A159" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
       </c>
       <c r="B159" s="64" t="n">
         <v>1.26</v>
@@ -8642,8 +8961,10 @@
       <c r="Z159" s="51" t="n"/>
     </row>
     <row r="160">
-      <c r="A160" s="66" t="n">
-        <v>46052</v>
+      <c r="A160" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
       </c>
       <c r="B160" s="64" t="n">
         <v>1.22</v>
@@ -8674,8 +8995,10 @@
       <c r="Z160" s="51" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="66" t="n">
-        <v>46053</v>
+      <c r="A161" s="67" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
       </c>
       <c r="B161" s="64" t="n">
         <v>1.22</v>
@@ -8706,8 +9029,10 @@
       <c r="Z161" s="51" t="n"/>
     </row>
     <row r="162">
-      <c r="A162" s="66" t="n">
-        <v>46054</v>
+      <c r="A162" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
       </c>
       <c r="B162" s="64" t="n">
         <v>1.22</v>
@@ -8738,8 +9063,10 @@
       <c r="Z162" s="51" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="66" t="n">
-        <v>46055</v>
+      <c r="A163" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
       </c>
       <c r="B163" s="64" t="n">
         <v>1.21</v>
@@ -8770,8 +9097,10 @@
       <c r="Z163" s="51" t="n"/>
     </row>
     <row r="164">
-      <c r="A164" s="66" t="n">
-        <v>46056</v>
+      <c r="A164" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
       </c>
       <c r="B164" s="64" t="n">
         <v>1.22</v>
@@ -8802,8 +9131,10 @@
       <c r="Z164" s="51" t="n"/>
     </row>
     <row r="165">
-      <c r="A165" s="66" t="n">
-        <v>46057</v>
+      <c r="A165" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
       </c>
       <c r="B165" s="64" t="n">
         <v>1.21</v>
@@ -8834,8 +9165,10 @@
       <c r="Z165" s="51" t="n"/>
     </row>
     <row r="166">
-      <c r="A166" s="66" t="n">
-        <v>46058</v>
+      <c r="A166" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
       </c>
       <c r="B166" s="64" t="n">
         <v>1.2</v>
@@ -8866,8 +9199,10 @@
       <c r="Z166" s="51" t="n"/>
     </row>
     <row r="167">
-      <c r="A167" s="66" t="n">
-        <v>46059</v>
+      <c r="A167" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
       </c>
       <c r="B167" s="64" t="n">
         <v>1.22</v>
@@ -8898,8 +9233,10 @@
       <c r="Z167" s="51" t="n"/>
     </row>
     <row r="168">
-      <c r="A168" s="66" t="n">
-        <v>46060</v>
+      <c r="A168" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
       </c>
       <c r="B168" s="64" t="n">
         <v>1.22</v>
@@ -8930,8 +9267,10 @@
       <c r="Z168" s="51" t="n"/>
     </row>
     <row r="169">
-      <c r="A169" s="66" t="n">
-        <v>46061</v>
+      <c r="A169" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
       </c>
       <c r="B169" s="64" t="n">
         <v>1.22</v>
@@ -8962,8 +9301,10 @@
       <c r="Z169" s="51" t="n"/>
     </row>
     <row r="170">
-      <c r="A170" s="66" t="n">
-        <v>46062</v>
+      <c r="A170" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
       </c>
       <c r="B170" s="64" t="n">
         <v>1.23</v>
@@ -8994,8 +9335,10 @@
       <c r="Z170" s="51" t="n"/>
     </row>
     <row r="171">
-      <c r="A171" s="66" t="n">
-        <v>46063</v>
+      <c r="A171" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
       </c>
       <c r="B171" s="64" t="n">
         <v>1.23</v>
@@ -9026,8 +9369,10 @@
       <c r="Z171" s="51" t="n"/>
     </row>
     <row r="172">
-      <c r="A172" s="66" t="n">
-        <v>46064</v>
+      <c r="A172" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
       </c>
       <c r="B172" s="64" t="n">
         <v>1.24</v>
@@ -9058,8 +9403,10 @@
       <c r="Z172" s="51" t="n"/>
     </row>
     <row r="173">
-      <c r="A173" s="66" t="n">
-        <v>46065</v>
+      <c r="A173" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
       </c>
       <c r="B173" s="64" t="n">
         <v>1.22</v>
@@ -9090,8 +9437,10 @@
       <c r="Z173" s="51" t="n"/>
     </row>
     <row r="174">
-      <c r="A174" s="66" t="n">
-        <v>46066</v>
+      <c r="A174" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
       </c>
       <c r="B174" s="64" t="n">
         <v>1.22</v>
@@ -9122,8 +9471,10 @@
       <c r="Z174" s="51" t="n"/>
     </row>
     <row r="175">
-      <c r="A175" s="66" t="n">
-        <v>46067</v>
+      <c r="A175" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
       </c>
       <c r="B175" s="64" t="n">
         <v>1.22</v>
@@ -9154,8 +9505,10 @@
       <c r="Z175" s="51" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="66" t="n">
-        <v>46068</v>
+      <c r="A176" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
       </c>
       <c r="B176" s="64" t="n">
         <v>1.22</v>
@@ -9186,8 +9539,10 @@
       <c r="Z176" s="51" t="n"/>
     </row>
     <row r="177">
-      <c r="A177" s="66" t="n">
-        <v>46069</v>
+      <c r="A177" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
       </c>
       <c r="B177" s="64" t="n">
         <v>1.22</v>
@@ -9218,8 +9573,10 @@
       <c r="Z177" s="51" t="n"/>
     </row>
     <row r="178">
-      <c r="A178" s="66" t="n">
-        <v>46070</v>
+      <c r="A178" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
       </c>
       <c r="B178" s="64" t="n">
         <v>1.21</v>
@@ -9250,8 +9607,10 @@
       <c r="Z178" s="51" t="n"/>
     </row>
     <row r="179">
-      <c r="A179" s="66" t="n">
-        <v>46071</v>
+      <c r="A179" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
       </c>
       <c r="B179" s="64" t="n">
         <v>1.22</v>
@@ -9282,8 +9641,10 @@
       <c r="Z179" s="51" t="n"/>
     </row>
     <row r="180">
-      <c r="A180" s="66" t="n">
-        <v>46072</v>
+      <c r="A180" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
       </c>
       <c r="B180" s="64" t="n">
         <v>1.25</v>
@@ -9314,8 +9675,10 @@
       <c r="Z180" s="51" t="n"/>
     </row>
     <row r="181">
-      <c r="A181" s="66" t="n">
-        <v>46073</v>
+      <c r="A181" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
       </c>
       <c r="B181" s="64" t="n">
         <v>1.26</v>
@@ -9346,8 +9709,10 @@
       <c r="Z181" s="51" t="n"/>
     </row>
     <row r="182">
-      <c r="A182" s="66" t="n">
-        <v>46074</v>
+      <c r="A182" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
       </c>
       <c r="B182" s="64" t="n">
         <v>1.26</v>
@@ -9378,8 +9743,10 @@
       <c r="Z182" s="51" t="n"/>
     </row>
     <row r="183">
-      <c r="A183" s="66" t="n">
-        <v>46075</v>
+      <c r="A183" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
       </c>
       <c r="B183" s="64" t="n">
         <v>1.27</v>
@@ -9410,11 +9777,13 @@
       <c r="Z183" s="51" t="n"/>
     </row>
     <row r="184">
-      <c r="A184" s="66" t="n">
-        <v>46076</v>
+      <c r="A184" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
       </c>
       <c r="B184" s="64" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="C184" s="64" t="n"/>
       <c r="D184" s="64" t="n"/>
@@ -9442,8 +9811,14 @@
       <c r="Z184" s="51" t="n"/>
     </row>
     <row r="185">
-      <c r="A185" s="67" t="n"/>
-      <c r="B185" s="64" t="n"/>
+      <c r="A185" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B185" s="64" t="n">
+        <v>1.2674</v>
+      </c>
       <c r="C185" s="64" t="n"/>
       <c r="D185" s="64" t="n"/>
       <c r="E185" s="67" t="n"/>
@@ -9470,8 +9845,14 @@
       <c r="Z185" s="51" t="n"/>
     </row>
     <row r="186">
-      <c r="A186" s="67" t="n"/>
-      <c r="B186" s="64" t="n"/>
+      <c r="A186" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B186" s="64" t="n">
+        <v>1.2774</v>
+      </c>
       <c r="C186" s="64" t="n"/>
       <c r="D186" s="64" t="n"/>
       <c r="E186" s="67" t="n"/>
@@ -9498,8 +9879,14 @@
       <c r="Z186" s="51" t="n"/>
     </row>
     <row r="187">
-      <c r="A187" s="67" t="n"/>
-      <c r="B187" s="64" t="n"/>
+      <c r="A187" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B187" s="64" t="n">
+        <v>1.27</v>
+      </c>
       <c r="C187" s="64" t="n"/>
       <c r="D187" s="64" t="n"/>
       <c r="E187" s="67" t="n"/>
@@ -9526,8 +9913,14 @@
       <c r="Z187" s="51" t="n"/>
     </row>
     <row r="188">
-      <c r="A188" s="67" t="n"/>
-      <c r="B188" s="64" t="n"/>
+      <c r="A188" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B188" s="64" t="n">
+        <v>1.27</v>
+      </c>
       <c r="C188" s="64" t="n"/>
       <c r="D188" s="64" t="n"/>
       <c r="E188" s="67" t="n"/>
@@ -9554,8 +9947,14 @@
       <c r="Z188" s="51" t="n"/>
     </row>
     <row r="189">
-      <c r="A189" s="67" t="n"/>
-      <c r="B189" s="64" t="n"/>
+      <c r="A189" s="67" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B189" s="64" t="n">
+        <v>1.27</v>
+      </c>
       <c r="C189" s="64" t="n"/>
       <c r="D189" s="64" t="n"/>
       <c r="E189" s="67" t="n"/>
@@ -9582,8 +9981,14 @@
       <c r="Z189" s="51" t="n"/>
     </row>
     <row r="190">
-      <c r="A190" s="67" t="n"/>
-      <c r="B190" s="64" t="n"/>
+      <c r="A190" s="67" t="inlineStr">
+        <is>
+          <t>2026-03-01</t>
+        </is>
+      </c>
+      <c r="B190" s="64" t="n">
+        <v>1.2677</v>
+      </c>
       <c r="C190" s="64" t="n"/>
       <c r="D190" s="64" t="n"/>
       <c r="E190" s="67" t="n"/>
@@ -32346,7 +32751,7 @@
         </is>
       </c>
       <c r="B2" s="77" t="n">
-        <v>46082.44681172186</v>
+        <v>46082.4658343421</v>
       </c>
       <c r="C2" s="86" t="inlineStr">
         <is>
@@ -32400,7 +32805,7 @@
         </is>
       </c>
       <c r="H3" s="122" t="n">
-        <v>46082.44681172186</v>
+        <v>46082.4658343421</v>
       </c>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="n"/>
@@ -38720,8 +39125,10 @@
       <c r="T1" s="86" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="94" t="n">
-        <v>45894</v>
+      <c r="A2" s="86" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
       </c>
       <c r="B2" s="83" t="n">
         <v>3465.38</v>
@@ -38758,8 +39165,10 @@
       <c r="T2" s="86" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="89" t="n">
-        <v>45895</v>
+      <c r="A3" s="99" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
       </c>
       <c r="B3" s="117" t="n">
         <v>3465.38</v>
@@ -38796,8 +39205,10 @@
       <c r="T3" s="99" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="89" t="n">
-        <v>45896</v>
+      <c r="A4" s="99" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
       </c>
       <c r="B4" s="117" t="n">
         <v>3465.38</v>
@@ -38834,8 +39245,10 @@
       <c r="T4" s="99" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="89" t="n">
-        <v>45897</v>
+      <c r="A5" s="99" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
       </c>
       <c r="B5" s="117" t="n">
         <v>3465.38</v>
@@ -38872,8 +39285,10 @@
       <c r="T5" s="99" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="89" t="n">
-        <v>45898</v>
+      <c r="A6" s="99" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
       </c>
       <c r="B6" s="117" t="n">
         <v>3465.38</v>
@@ -38910,8 +39325,10 @@
       <c r="T6" s="99" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="89" t="n">
-        <v>45899</v>
+      <c r="A7" s="99" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
       </c>
       <c r="B7" s="117" t="n">
         <v>3465.38</v>
@@ -38948,8 +39365,10 @@
       <c r="T7" s="99" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="89" t="n">
-        <v>45900</v>
+      <c r="A8" s="99" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
       </c>
       <c r="B8" s="117" t="n">
         <v>3465.38</v>
@@ -38986,8 +39405,10 @@
       <c r="T8" s="99" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="89" t="n">
-        <v>45901</v>
+      <c r="A9" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
       </c>
       <c r="B9" s="117" t="n">
         <v>3465.38</v>
@@ -39024,8 +39445,10 @@
       <c r="T9" s="99" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="89" t="n">
-        <v>45902</v>
+      <c r="A10" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="B10" s="117" t="n">
         <v>3465.38</v>
@@ -39062,8 +39485,10 @@
       <c r="T10" s="99" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="89" t="n">
-        <v>45903</v>
+      <c r="A11" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
       </c>
       <c r="B11" s="117" t="n">
         <v>3465.38</v>
@@ -39100,8 +39525,10 @@
       <c r="T11" s="99" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="89" t="n">
-        <v>45904</v>
+      <c r="A12" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
       </c>
       <c r="B12" s="117" t="n">
         <v>3465.38</v>
@@ -39138,8 +39565,10 @@
       <c r="T12" s="99" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="89" t="n">
-        <v>45905</v>
+      <c r="A13" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
       </c>
       <c r="B13" s="117" t="n">
         <v>3465.38</v>
@@ -39176,8 +39605,10 @@
       <c r="T13" s="99" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="89" t="n">
-        <v>45906</v>
+      <c r="A14" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
       </c>
       <c r="B14" s="117" t="n">
         <v>3465.38</v>
@@ -39214,8 +39645,10 @@
       <c r="T14" s="99" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="89" t="n">
-        <v>45907</v>
+      <c r="A15" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
       </c>
       <c r="B15" s="117" t="n">
         <v>3465.38</v>
@@ -39252,8 +39685,10 @@
       <c r="T15" s="99" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="89" t="n">
-        <v>45908</v>
+      <c r="A16" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
       </c>
       <c r="B16" s="117" t="n">
         <v>3465.38</v>
@@ -39290,8 +39725,10 @@
       <c r="T16" s="99" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="89" t="n">
-        <v>45909</v>
+      <c r="A17" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
       </c>
       <c r="B17" s="117" t="n">
         <v>3465.38</v>
@@ -39328,8 +39765,10 @@
       <c r="T17" s="99" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="89" t="n">
-        <v>45910</v>
+      <c r="A18" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
       </c>
       <c r="B18" s="117" t="n">
         <v>3465.38</v>
@@ -39366,8 +39805,10 @@
       <c r="T18" s="99" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="89" t="n">
-        <v>45911</v>
+      <c r="A19" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
       </c>
       <c r="B19" s="117" t="n">
         <v>3465.38</v>
@@ -39404,8 +39845,10 @@
       <c r="T19" s="99" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="89" t="n">
-        <v>45912</v>
+      <c r="A20" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
       </c>
       <c r="B20" s="117" t="n">
         <v>3465.38</v>
@@ -39442,8 +39885,10 @@
       <c r="T20" s="99" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="89" t="n">
-        <v>45913</v>
+      <c r="A21" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
       </c>
       <c r="B21" s="117" t="n">
         <v>3465.38</v>
@@ -39480,8 +39925,10 @@
       <c r="T21" s="99" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="89" t="n">
-        <v>45914</v>
+      <c r="A22" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
       </c>
       <c r="B22" s="117" t="n">
         <v>3465.38</v>
@@ -39518,8 +39965,10 @@
       <c r="T22" s="99" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="89" t="n">
-        <v>45915</v>
+      <c r="A23" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
       </c>
       <c r="B23" s="117" t="n">
         <v>3465.38</v>
@@ -39556,8 +40005,10 @@
       <c r="T23" s="99" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="89" t="n">
-        <v>45916</v>
+      <c r="A24" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
       </c>
       <c r="B24" s="117" t="n">
         <v>3465.38</v>
@@ -39594,8 +40045,10 @@
       <c r="T24" s="99" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="89" t="n">
-        <v>45917</v>
+      <c r="A25" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
       </c>
       <c r="B25" s="117" t="n">
         <v>3465.38</v>
@@ -39632,8 +40085,10 @@
       <c r="T25" s="99" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="89" t="n">
-        <v>45918</v>
+      <c r="A26" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
       </c>
       <c r="B26" s="117" t="n">
         <v>3465.38</v>
@@ -39670,8 +40125,10 @@
       <c r="T26" s="99" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="89" t="n">
-        <v>45919</v>
+      <c r="A27" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
       </c>
       <c r="B27" s="117" t="n">
         <v>3465.38</v>
@@ -39708,8 +40165,10 @@
       <c r="T27" s="99" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="89" t="n">
-        <v>45920</v>
+      <c r="A28" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
       </c>
       <c r="B28" s="117" t="n">
         <v>3465.38</v>
@@ -39746,8 +40205,10 @@
       <c r="T28" s="99" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="89" t="n">
-        <v>45921</v>
+      <c r="A29" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
       </c>
       <c r="B29" s="117" t="n">
         <v>3465.38</v>
@@ -39784,8 +40245,10 @@
       <c r="T29" s="99" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="89" t="n">
-        <v>45922</v>
+      <c r="A30" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
       </c>
       <c r="B30" s="117" t="n">
         <v>3465.38</v>
@@ -39822,8 +40285,10 @@
       <c r="T30" s="99" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="89" t="n">
-        <v>45923</v>
+      <c r="A31" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
       </c>
       <c r="B31" s="117" t="n">
         <v>3465.38</v>
@@ -39860,8 +40325,10 @@
       <c r="T31" s="99" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="89" t="n">
-        <v>45924</v>
+      <c r="A32" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
       </c>
       <c r="B32" s="117" t="n">
         <v>3465.38</v>
@@ -39898,8 +40365,10 @@
       <c r="T32" s="99" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="89" t="n">
-        <v>45925</v>
+      <c r="A33" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
       </c>
       <c r="B33" s="117" t="n">
         <v>3465.38</v>
@@ -39936,8 +40405,10 @@
       <c r="T33" s="99" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="89" t="n">
-        <v>45926</v>
+      <c r="A34" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
       </c>
       <c r="B34" s="117" t="n">
         <v>3465.38</v>
@@ -39974,8 +40445,10 @@
       <c r="T34" s="99" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="89" t="n">
-        <v>45927</v>
+      <c r="A35" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
       </c>
       <c r="B35" s="117" t="n">
         <v>3465.38</v>
@@ -40012,8 +40485,10 @@
       <c r="T35" s="99" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="89" t="n">
-        <v>45928</v>
+      <c r="A36" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
       </c>
       <c r="B36" s="117" t="n">
         <v>3465.38</v>
@@ -40050,8 +40525,10 @@
       <c r="T36" s="99" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="89" t="n">
-        <v>45929</v>
+      <c r="A37" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
       </c>
       <c r="B37" s="117" t="n">
         <v>3465.38</v>
@@ -40088,8 +40565,10 @@
       <c r="T37" s="99" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="89" t="n">
-        <v>45930</v>
+      <c r="A38" s="99" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
       </c>
       <c r="B38" s="117" t="n">
         <v>3465.38</v>
@@ -40126,8 +40605,10 @@
       <c r="T38" s="99" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="89" t="n">
-        <v>45931</v>
+      <c r="A39" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
       </c>
       <c r="B39" s="117" t="n">
         <v>3465.38</v>
@@ -40164,8 +40645,10 @@
       <c r="T39" s="99" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="89" t="n">
-        <v>45932</v>
+      <c r="A40" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
       </c>
       <c r="B40" s="117" t="n">
         <v>3465.38</v>
@@ -40202,8 +40685,10 @@
       <c r="T40" s="99" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="89" t="n">
-        <v>45933</v>
+      <c r="A41" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
       </c>
       <c r="B41" s="117" t="n">
         <v>3465.38</v>
@@ -40240,8 +40725,10 @@
       <c r="T41" s="99" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="89" t="n">
-        <v>45934</v>
+      <c r="A42" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
       </c>
       <c r="B42" s="117" t="n">
         <v>3465.38</v>
@@ -40278,8 +40765,10 @@
       <c r="T42" s="99" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="89" t="n">
-        <v>45935</v>
+      <c r="A43" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
       </c>
       <c r="B43" s="117" t="n">
         <v>3465.38</v>
@@ -40316,8 +40805,10 @@
       <c r="T43" s="99" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="89" t="n">
-        <v>45936</v>
+      <c r="A44" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
       </c>
       <c r="B44" s="117" t="n">
         <v>3465.38</v>
@@ -40354,8 +40845,10 @@
       <c r="T44" s="99" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="89" t="n">
-        <v>45937</v>
+      <c r="A45" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
       </c>
       <c r="B45" s="117" t="n">
         <v>3465.38</v>
@@ -40392,8 +40885,10 @@
       <c r="T45" s="99" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="89" t="n">
-        <v>45938</v>
+      <c r="A46" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
       </c>
       <c r="B46" s="117" t="n">
         <v>3465.38</v>
@@ -40430,8 +40925,10 @@
       <c r="T46" s="99" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="89" t="n">
-        <v>45939</v>
+      <c r="A47" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
       </c>
       <c r="B47" s="117" t="n">
         <v>3465.38</v>
@@ -40468,8 +40965,10 @@
       <c r="T47" s="99" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="89" t="n">
-        <v>45940</v>
+      <c r="A48" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
       </c>
       <c r="B48" s="117" t="n">
         <v>3465.38</v>
@@ -40506,8 +41005,10 @@
       <c r="T48" s="99" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="89" t="n">
-        <v>45941</v>
+      <c r="A49" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
       </c>
       <c r="B49" s="117" t="n">
         <v>3465.38</v>
@@ -40544,8 +41045,10 @@
       <c r="T49" s="99" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="89" t="n">
-        <v>45942</v>
+      <c r="A50" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
       </c>
       <c r="B50" s="117" t="n">
         <v>3465.38</v>
@@ -40582,8 +41085,10 @@
       <c r="T50" s="99" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="89" t="n">
-        <v>45943</v>
+      <c r="A51" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
       </c>
       <c r="B51" s="117" t="n">
         <v>3465.38</v>
@@ -40620,8 +41125,10 @@
       <c r="T51" s="99" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="89" t="n">
-        <v>45944</v>
+      <c r="A52" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
       </c>
       <c r="B52" s="117" t="n">
         <v>3465.38</v>
@@ -40658,8 +41165,10 @@
       <c r="T52" s="99" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="89" t="n">
-        <v>45945</v>
+      <c r="A53" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
       </c>
       <c r="B53" s="117" t="n">
         <v>3465.38</v>
@@ -40696,8 +41205,10 @@
       <c r="T53" s="99" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="89" t="n">
-        <v>45946</v>
+      <c r="A54" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
       </c>
       <c r="B54" s="117" t="n">
         <v>3465.38</v>
@@ -40734,8 +41245,10 @@
       <c r="T54" s="99" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="89" t="n">
-        <v>45947</v>
+      <c r="A55" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
       </c>
       <c r="B55" s="117" t="n">
         <v>3465.38</v>
@@ -40772,8 +41285,10 @@
       <c r="T55" s="99" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="89" t="n">
-        <v>45948</v>
+      <c r="A56" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
       </c>
       <c r="B56" s="117" t="n">
         <v>3465.38</v>
@@ -40810,8 +41325,10 @@
       <c r="T56" s="99" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="89" t="n">
-        <v>45949</v>
+      <c r="A57" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
       </c>
       <c r="B57" s="117" t="n">
         <v>3465.38</v>
@@ -40848,8 +41365,10 @@
       <c r="T57" s="99" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="89" t="n">
-        <v>45950</v>
+      <c r="A58" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
       </c>
       <c r="B58" s="117" t="n">
         <v>3465.38</v>
@@ -40886,8 +41405,10 @@
       <c r="T58" s="99" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="89" t="n">
-        <v>45951</v>
+      <c r="A59" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
       </c>
       <c r="B59" s="117" t="n">
         <v>3465.38</v>
@@ -40924,8 +41445,10 @@
       <c r="T59" s="99" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="89" t="n">
-        <v>45952</v>
+      <c r="A60" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
       </c>
       <c r="B60" s="117" t="n">
         <v>3465.38</v>
@@ -40962,8 +41485,10 @@
       <c r="T60" s="99" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="89" t="n">
-        <v>45953</v>
+      <c r="A61" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
       </c>
       <c r="B61" s="117" t="n">
         <v>3465.38</v>
@@ -41000,8 +41525,10 @@
       <c r="T61" s="99" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="89" t="n">
-        <v>45954</v>
+      <c r="A62" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
       </c>
       <c r="B62" s="117" t="n">
         <v>3465.38</v>
@@ -41038,8 +41565,10 @@
       <c r="T62" s="99" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="89" t="n">
-        <v>45955</v>
+      <c r="A63" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
       </c>
       <c r="B63" s="117" t="n">
         <v>3465.38</v>
@@ -41076,8 +41605,10 @@
       <c r="T63" s="99" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="89" t="n">
-        <v>45956</v>
+      <c r="A64" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
       </c>
       <c r="B64" s="117" t="n">
         <v>3465.38</v>
@@ -41114,8 +41645,10 @@
       <c r="T64" s="99" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="89" t="n">
-        <v>45957</v>
+      <c r="A65" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
       </c>
       <c r="B65" s="117" t="n">
         <v>3465.38</v>
@@ -41152,8 +41685,10 @@
       <c r="T65" s="99" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="89" t="n">
-        <v>45958</v>
+      <c r="A66" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
       </c>
       <c r="B66" s="117" t="n">
         <v>3465.38</v>
@@ -41190,8 +41725,10 @@
       <c r="T66" s="99" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="89" t="n">
-        <v>45959</v>
+      <c r="A67" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
       </c>
       <c r="B67" s="117" t="n">
         <v>3465.38</v>
@@ -41228,8 +41765,10 @@
       <c r="T67" s="99" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="89" t="n">
-        <v>45960</v>
+      <c r="A68" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
       </c>
       <c r="B68" s="117" t="n">
         <v>3465.38</v>
@@ -41266,8 +41805,10 @@
       <c r="T68" s="99" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="89" t="n">
-        <v>45961</v>
+      <c r="A69" s="99" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
       </c>
       <c r="B69" s="117" t="n">
         <v>3465.38</v>
@@ -41304,8 +41845,10 @@
       <c r="T69" s="99" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="89" t="n">
-        <v>45962</v>
+      <c r="A70" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
       </c>
       <c r="B70" s="117" t="n">
         <v>3465.38</v>
@@ -41342,8 +41885,10 @@
       <c r="T70" s="99" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="89" t="n">
-        <v>45963</v>
+      <c r="A71" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
       </c>
       <c r="B71" s="117" t="n">
         <v>3465.38</v>
@@ -41380,8 +41925,10 @@
       <c r="T71" s="99" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="89" t="n">
-        <v>45964</v>
+      <c r="A72" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
       </c>
       <c r="B72" s="117" t="n">
         <v>3465.38</v>
@@ -41418,8 +41965,10 @@
       <c r="T72" s="99" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="89" t="n">
-        <v>45965</v>
+      <c r="A73" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
       </c>
       <c r="B73" s="117" t="n">
         <v>3465.38</v>
@@ -41456,8 +42005,10 @@
       <c r="T73" s="99" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="89" t="n">
-        <v>45966</v>
+      <c r="A74" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
       </c>
       <c r="B74" s="117" t="n">
         <v>3465.38</v>
@@ -41494,8 +42045,10 @@
       <c r="T74" s="99" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="89" t="n">
-        <v>45967</v>
+      <c r="A75" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
       </c>
       <c r="B75" s="117" t="n">
         <v>3465.38</v>
@@ -41532,8 +42085,10 @@
       <c r="T75" s="99" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="89" t="n">
-        <v>45968</v>
+      <c r="A76" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
       </c>
       <c r="B76" s="117" t="n">
         <v>3465.38</v>
@@ -41570,8 +42125,10 @@
       <c r="T76" s="99" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="89" t="n">
-        <v>45969</v>
+      <c r="A77" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
       </c>
       <c r="B77" s="117" t="n">
         <v>3465.38</v>
@@ -41608,8 +42165,10 @@
       <c r="T77" s="99" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="89" t="n">
-        <v>45970</v>
+      <c r="A78" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
       </c>
       <c r="B78" s="117" t="n">
         <v>3465.38</v>
@@ -41646,8 +42205,10 @@
       <c r="T78" s="99" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="89" t="n">
-        <v>45971</v>
+      <c r="A79" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
       </c>
       <c r="B79" s="117" t="n">
         <v>3465.38</v>
@@ -41684,8 +42245,10 @@
       <c r="T79" s="99" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="89" t="n">
-        <v>45972</v>
+      <c r="A80" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
       </c>
       <c r="B80" s="117" t="n">
         <v>3465.38</v>
@@ -41722,8 +42285,10 @@
       <c r="T80" s="99" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="89" t="n">
-        <v>45973</v>
+      <c r="A81" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
       </c>
       <c r="B81" s="117" t="n">
         <v>3465.38</v>
@@ -41760,8 +42325,10 @@
       <c r="T81" s="99" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="89" t="n">
-        <v>45974</v>
+      <c r="A82" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
       </c>
       <c r="B82" s="117" t="n">
         <v>3465.38</v>
@@ -41798,8 +42365,10 @@
       <c r="T82" s="99" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="89" t="n">
-        <v>45975</v>
+      <c r="A83" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
       </c>
       <c r="B83" s="117" t="n">
         <v>3465.38</v>
@@ -41836,8 +42405,10 @@
       <c r="T83" s="99" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="89" t="n">
-        <v>45976</v>
+      <c r="A84" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
       </c>
       <c r="B84" s="117" t="n">
         <v>3465.38</v>
@@ -41874,8 +42445,10 @@
       <c r="T84" s="99" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="89" t="n">
-        <v>45977</v>
+      <c r="A85" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
       </c>
       <c r="B85" s="117" t="n">
         <v>3465.38</v>
@@ -41912,8 +42485,10 @@
       <c r="T85" s="99" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="89" t="n">
-        <v>45978</v>
+      <c r="A86" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
       </c>
       <c r="B86" s="117" t="n">
         <v>3465.38</v>
@@ -41950,8 +42525,10 @@
       <c r="T86" s="99" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="89" t="n">
-        <v>45979</v>
+      <c r="A87" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
       </c>
       <c r="B87" s="117" t="n">
         <v>3465.38</v>
@@ -41988,8 +42565,10 @@
       <c r="T87" s="99" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="89" t="n">
-        <v>45980</v>
+      <c r="A88" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
       </c>
       <c r="B88" s="117" t="n">
         <v>3465.38</v>
@@ -42026,8 +42605,10 @@
       <c r="T88" s="99" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="89" t="n">
-        <v>45981</v>
+      <c r="A89" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
       </c>
       <c r="B89" s="117" t="n">
         <v>3465.38</v>
@@ -42064,8 +42645,10 @@
       <c r="T89" s="99" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="89" t="n">
-        <v>45982</v>
+      <c r="A90" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
       </c>
       <c r="B90" s="117" t="n">
         <v>3465.38</v>
@@ -42102,8 +42685,10 @@
       <c r="T90" s="99" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="89" t="n">
-        <v>45983</v>
+      <c r="A91" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
       </c>
       <c r="B91" s="117" t="n">
         <v>3465.38</v>
@@ -42140,8 +42725,10 @@
       <c r="T91" s="99" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="89" t="n">
-        <v>45984</v>
+      <c r="A92" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
       </c>
       <c r="B92" s="117" t="n">
         <v>3465.38</v>
@@ -42178,8 +42765,10 @@
       <c r="T92" s="99" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="89" t="n">
-        <v>45985</v>
+      <c r="A93" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
       </c>
       <c r="B93" s="117" t="n">
         <v>3465.38</v>
@@ -42216,8 +42805,10 @@
       <c r="T93" s="99" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="89" t="n">
-        <v>45986</v>
+      <c r="A94" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
       </c>
       <c r="B94" s="117" t="n">
         <v>3465.38</v>
@@ -42254,8 +42845,10 @@
       <c r="T94" s="99" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="89" t="n">
-        <v>45987</v>
+      <c r="A95" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
       </c>
       <c r="B95" s="117" t="n">
         <v>3465.38</v>
@@ -42292,8 +42885,10 @@
       <c r="T95" s="99" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="89" t="n">
-        <v>45988</v>
+      <c r="A96" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
       </c>
       <c r="B96" s="117" t="n">
         <v>3465.38</v>
@@ -42330,8 +42925,10 @@
       <c r="T96" s="99" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="89" t="n">
-        <v>45989</v>
+      <c r="A97" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
       </c>
       <c r="B97" s="117" t="n">
         <v>3465.38</v>
@@ -42368,8 +42965,10 @@
       <c r="T97" s="99" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="89" t="n">
-        <v>45990</v>
+      <c r="A98" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
       </c>
       <c r="B98" s="117" t="n">
         <v>3465.38</v>
@@ -42406,8 +43005,10 @@
       <c r="T98" s="99" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="89" t="n">
-        <v>45991</v>
+      <c r="A99" s="99" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
       </c>
       <c r="B99" s="117" t="n">
         <v>3465.38</v>
@@ -42444,8 +43045,10 @@
       <c r="T99" s="99" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="89" t="n">
-        <v>45992</v>
+      <c r="A100" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
       </c>
       <c r="B100" s="117" t="n">
         <v>3465.38</v>
@@ -42482,8 +43085,10 @@
       <c r="T100" s="99" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="89" t="n">
-        <v>45993</v>
+      <c r="A101" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
       </c>
       <c r="B101" s="117" t="n">
         <v>3465.38</v>
@@ -42520,8 +43125,10 @@
       <c r="T101" s="99" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="89" t="n">
-        <v>45994</v>
+      <c r="A102" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
       </c>
       <c r="B102" s="117" t="n">
         <v>3465.38</v>
@@ -42558,8 +43165,10 @@
       <c r="T102" s="99" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="89" t="n">
-        <v>45995</v>
+      <c r="A103" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
       </c>
       <c r="B103" s="117" t="n">
         <v>3465.38</v>
@@ -42596,8 +43205,10 @@
       <c r="T103" s="99" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="89" t="n">
-        <v>45996</v>
+      <c r="A104" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
       </c>
       <c r="B104" s="117" t="n">
         <v>3465.38</v>
@@ -42634,8 +43245,10 @@
       <c r="T104" s="99" t="n"/>
     </row>
     <row r="105">
-      <c r="A105" s="89" t="n">
-        <v>45997</v>
+      <c r="A105" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
       </c>
       <c r="B105" s="117" t="n">
         <v>3465.38</v>
@@ -42672,8 +43285,10 @@
       <c r="T105" s="99" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="89" t="n">
-        <v>45998</v>
+      <c r="A106" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
       </c>
       <c r="B106" s="117" t="n">
         <v>3465.38</v>
@@ -42710,8 +43325,10 @@
       <c r="T106" s="99" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="89" t="n">
-        <v>45999</v>
+      <c r="A107" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
       </c>
       <c r="B107" s="117" t="n">
         <v>3195.28</v>
@@ -42748,8 +43365,10 @@
       <c r="T107" s="99" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" s="89" t="n">
-        <v>46000</v>
+      <c r="A108" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
       </c>
       <c r="B108" s="117" t="n">
         <v>3074.97</v>
@@ -42786,8 +43405,10 @@
       <c r="T108" s="99" t="n"/>
     </row>
     <row r="109">
-      <c r="A109" s="89" t="n">
-        <v>46001</v>
+      <c r="A109" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
       </c>
       <c r="B109" s="117" t="n">
         <v>2954.67</v>
@@ -42824,8 +43445,10 @@
       <c r="T109" s="99" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" s="89" t="n">
-        <v>46002</v>
+      <c r="A110" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
       </c>
       <c r="B110" s="117" t="n">
         <v>2834.36</v>
@@ -42862,8 +43485,10 @@
       <c r="T110" s="99" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" s="89" t="n">
-        <v>46003</v>
+      <c r="A111" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
       </c>
       <c r="B111" s="117" t="n">
         <v>2714.06</v>
@@ -42900,8 +43525,10 @@
       <c r="T111" s="99" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="89" t="n">
-        <v>46004</v>
+      <c r="A112" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
       </c>
       <c r="B112" s="117" t="n">
         <v>2714.06</v>
@@ -42938,8 +43565,10 @@
       <c r="T112" s="99" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" s="89" t="n">
-        <v>46005</v>
+      <c r="A113" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
       </c>
       <c r="B113" s="117" t="n">
         <v>2714.06</v>
@@ -42976,8 +43605,10 @@
       <c r="T113" s="99" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="89" t="n">
-        <v>46006</v>
+      <c r="A114" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
       </c>
       <c r="B114" s="117" t="n">
         <v>2353.14</v>
@@ -43014,8 +43645,10 @@
       <c r="T114" s="99" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="89" t="n">
-        <v>46007</v>
+      <c r="A115" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
       </c>
       <c r="B115" s="117" t="n">
         <v>2232.83</v>
@@ -43052,8 +43685,10 @@
       <c r="T115" s="99" t="n"/>
     </row>
     <row r="116">
-      <c r="A116" s="89" t="n">
-        <v>46008</v>
+      <c r="A116" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
       </c>
       <c r="B116" s="117" t="n">
         <v>2112.53</v>
@@ -43090,8 +43725,10 @@
       <c r="T116" s="99" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="89" t="n">
-        <v>46009</v>
+      <c r="A117" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
       </c>
       <c r="B117" s="117" t="n">
         <v>1992.22</v>
@@ -43128,8 +43765,10 @@
       <c r="T117" s="99" t="n"/>
     </row>
     <row r="118">
-      <c r="A118" s="89" t="n">
-        <v>46010</v>
+      <c r="A118" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
       </c>
       <c r="B118" s="117" t="n">
         <v>1871.91</v>
@@ -43166,8 +43805,10 @@
       <c r="T118" s="99" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" s="89" t="n">
-        <v>46011</v>
+      <c r="A119" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
       </c>
       <c r="B119" s="117" t="n">
         <v>1871.91</v>
@@ -43204,8 +43845,10 @@
       <c r="T119" s="99" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" s="89" t="n">
-        <v>46012</v>
+      <c r="A120" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
       </c>
       <c r="B120" s="117" t="n">
         <v>1871.91</v>
@@ -43242,8 +43885,10 @@
       <c r="T120" s="99" t="n"/>
     </row>
     <row r="121">
-      <c r="A121" s="89" t="n">
-        <v>46013</v>
+      <c r="A121" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
       </c>
       <c r="B121" s="117" t="n">
         <v>1511</v>
@@ -43280,8 +43925,10 @@
       <c r="T121" s="99" t="n"/>
     </row>
     <row r="122">
-      <c r="A122" s="89" t="n">
-        <v>46014</v>
+      <c r="A122" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
       </c>
       <c r="B122" s="117" t="n">
         <v>1390.69</v>
@@ -43318,8 +43965,10 @@
       <c r="T122" s="99" t="n"/>
     </row>
     <row r="123">
-      <c r="A123" s="89" t="n">
-        <v>46015</v>
+      <c r="A123" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
       </c>
       <c r="B123" s="117" t="n">
         <v>1270.38</v>
@@ -43356,8 +44005,10 @@
       <c r="T123" s="99" t="n"/>
     </row>
     <row r="124">
-      <c r="A124" s="89" t="n">
-        <v>46016</v>
+      <c r="A124" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
       </c>
       <c r="B124" s="117" t="n">
         <v>1150.08</v>
@@ -43394,8 +44045,10 @@
       <c r="T124" s="99" t="n"/>
     </row>
     <row r="125">
-      <c r="A125" s="89" t="n">
-        <v>46017</v>
+      <c r="A125" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
       </c>
       <c r="B125" s="117" t="n">
         <v>1029.77</v>
@@ -43432,8 +44085,10 @@
       <c r="T125" s="99" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" s="89" t="n">
-        <v>46018</v>
+      <c r="A126" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
       </c>
       <c r="B126" s="117" t="n">
         <v>1029.77</v>
@@ -43470,8 +44125,10 @@
       <c r="T126" s="99" t="n"/>
     </row>
     <row r="127">
-      <c r="A127" s="89" t="n">
-        <v>46019</v>
+      <c r="A127" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
       </c>
       <c r="B127" s="117" t="n">
         <v>1029.77</v>
@@ -43508,8 +44165,10 @@
       <c r="T127" s="99" t="n"/>
     </row>
     <row r="128">
-      <c r="A128" s="89" t="n">
-        <v>46020</v>
+      <c r="A128" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
       </c>
       <c r="B128" s="117" t="n">
         <v>668.85</v>
@@ -43546,8 +44205,10 @@
       <c r="T128" s="99" t="n"/>
     </row>
     <row r="129">
-      <c r="A129" s="89" t="n">
-        <v>46021</v>
+      <c r="A129" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
       </c>
       <c r="B129" s="117" t="n">
         <v>548.55</v>
@@ -43584,8 +44245,10 @@
       <c r="T129" s="99" t="n"/>
     </row>
     <row r="130">
-      <c r="A130" s="89" t="n">
-        <v>46022</v>
+      <c r="A130" s="99" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
       </c>
       <c r="B130" s="117" t="n">
         <v>428.24</v>
@@ -43622,8 +44285,10 @@
       <c r="T130" s="99" t="n"/>
     </row>
     <row r="131">
-      <c r="A131" s="89" t="n">
-        <v>46023</v>
+      <c r="A131" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
       </c>
       <c r="B131" s="117" t="n">
         <v>428.24</v>
@@ -43660,8 +44325,10 @@
       <c r="T131" s="99" t="n"/>
     </row>
     <row r="132">
-      <c r="A132" s="89" t="n">
-        <v>46024</v>
+      <c r="A132" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
       </c>
       <c r="B132" s="117" t="n">
         <v>428.24</v>
@@ -43698,8 +44365,10 @@
       <c r="T132" s="99" t="n"/>
     </row>
     <row r="133">
-      <c r="A133" s="89" t="n">
-        <v>46025</v>
+      <c r="A133" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
       </c>
       <c r="B133" s="117" t="n">
         <v>428.24</v>
@@ -43736,8 +44405,10 @@
       <c r="T133" s="99" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" s="89" t="n">
-        <v>46026</v>
+      <c r="A134" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
       </c>
       <c r="B134" s="117" t="n">
         <v>428.24</v>
@@ -43774,8 +44445,10 @@
       <c r="T134" s="99" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" s="89" t="n">
-        <v>46027</v>
+      <c r="A135" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
       </c>
       <c r="B135" s="117" t="n">
         <v>428.24</v>
@@ -43812,8 +44485,10 @@
       <c r="T135" s="99" t="n"/>
     </row>
     <row r="136">
-      <c r="A136" s="89" t="n">
-        <v>46028</v>
+      <c r="A136" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
       </c>
       <c r="B136" s="117" t="n">
         <v>428.24</v>
@@ -43850,8 +44525,10 @@
       <c r="T136" s="99" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" s="89" t="n">
-        <v>46029</v>
+      <c r="A137" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
       </c>
       <c r="B137" s="117" t="n">
         <v>428.24</v>
@@ -43888,8 +44565,10 @@
       <c r="T137" s="99" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" s="89" t="n">
-        <v>46030</v>
+      <c r="A138" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
       </c>
       <c r="B138" s="117" t="n">
         <v>428.24</v>
@@ -43926,8 +44605,10 @@
       <c r="T138" s="99" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" s="89" t="n">
-        <v>46031</v>
+      <c r="A139" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
       </c>
       <c r="B139" s="117" t="n">
         <v>428.24</v>
@@ -43964,8 +44645,10 @@
       <c r="T139" s="99" t="n"/>
     </row>
     <row r="140">
-      <c r="A140" s="89" t="n">
-        <v>46032</v>
+      <c r="A140" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
       </c>
       <c r="B140" s="117" t="n">
         <v>428.24</v>
@@ -44002,8 +44685,10 @@
       <c r="T140" s="99" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" s="89" t="n">
-        <v>46033</v>
+      <c r="A141" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
       </c>
       <c r="B141" s="117" t="n">
         <v>428.24</v>
@@ -44040,8 +44725,10 @@
       <c r="T141" s="99" t="n"/>
     </row>
     <row r="142">
-      <c r="A142" s="89" t="n">
-        <v>46034</v>
+      <c r="A142" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
       </c>
       <c r="B142" s="117" t="n">
         <v>428.24</v>
@@ -44078,8 +44765,10 @@
       <c r="T142" s="99" t="n"/>
     </row>
     <row r="143">
-      <c r="A143" s="89" t="n">
-        <v>46035</v>
+      <c r="A143" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
       </c>
       <c r="B143" s="117" t="n">
         <v>428.24</v>
@@ -44116,8 +44805,10 @@
       <c r="T143" s="99" t="n"/>
     </row>
     <row r="144">
-      <c r="A144" s="89" t="n">
-        <v>46036</v>
+      <c r="A144" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
       </c>
       <c r="B144" s="117" t="n">
         <v>428.24</v>
@@ -44154,8 +44845,10 @@
       <c r="T144" s="99" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" s="89" t="n">
-        <v>46037</v>
+      <c r="A145" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
       </c>
       <c r="B145" s="117" t="n">
         <v>428.24</v>
@@ -44192,8 +44885,10 @@
       <c r="T145" s="99" t="n"/>
     </row>
     <row r="146">
-      <c r="A146" s="89" t="n">
-        <v>46038</v>
+      <c r="A146" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
       </c>
       <c r="B146" s="117" t="n">
         <v>428.24</v>
@@ -44230,8 +44925,10 @@
       <c r="T146" s="99" t="n"/>
     </row>
     <row r="147">
-      <c r="A147" s="89" t="n">
-        <v>46039</v>
+      <c r="A147" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
       </c>
       <c r="B147" s="117" t="n">
         <v>428.24</v>
@@ -44268,8 +44965,10 @@
       <c r="T147" s="99" t="n"/>
     </row>
     <row r="148">
-      <c r="A148" s="89" t="n">
-        <v>46040</v>
+      <c r="A148" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
       </c>
       <c r="B148" s="117" t="n">
         <v>428.24</v>
@@ -44306,8 +45005,10 @@
       <c r="T148" s="99" t="n"/>
     </row>
     <row r="149">
-      <c r="A149" s="89" t="n">
-        <v>46041</v>
+      <c r="A149" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
       </c>
       <c r="B149" s="117" t="n">
         <v>428.24</v>
@@ -44344,8 +45045,10 @@
       <c r="T149" s="99" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" s="89" t="n">
-        <v>46042</v>
+      <c r="A150" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
       </c>
       <c r="B150" s="117" t="n">
         <v>428.24</v>
@@ -44382,8 +45085,10 @@
       <c r="T150" s="99" t="n"/>
     </row>
     <row r="151">
-      <c r="A151" s="89" t="n">
-        <v>46043</v>
+      <c r="A151" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
       </c>
       <c r="B151" s="117" t="n">
         <v>428.24</v>
@@ -44420,8 +45125,10 @@
       <c r="T151" s="99" t="n"/>
     </row>
     <row r="152">
-      <c r="A152" s="89" t="n">
-        <v>46044</v>
+      <c r="A152" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
       </c>
       <c r="B152" s="117" t="n">
         <v>428.24</v>
@@ -44458,8 +45165,10 @@
       <c r="T152" s="99" t="n"/>
     </row>
     <row r="153">
-      <c r="A153" s="89" t="n">
-        <v>46045</v>
+      <c r="A153" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
       </c>
       <c r="B153" s="117" t="n">
         <v>428.24</v>
@@ -44496,8 +45205,10 @@
       <c r="T153" s="99" t="n"/>
     </row>
     <row r="154">
-      <c r="A154" s="89" t="n">
-        <v>46046</v>
+      <c r="A154" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
       </c>
       <c r="B154" s="117" t="n">
         <v>428.24</v>
@@ -44534,8 +45245,10 @@
       <c r="T154" s="99" t="n"/>
     </row>
     <row r="155">
-      <c r="A155" s="89" t="n">
-        <v>46047</v>
+      <c r="A155" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
       </c>
       <c r="B155" s="117" t="n">
         <v>428.24</v>
@@ -44572,8 +45285,10 @@
       <c r="T155" s="99" t="n"/>
     </row>
     <row r="156">
-      <c r="A156" s="89" t="n">
-        <v>46048</v>
+      <c r="A156" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
       </c>
       <c r="B156" s="117" t="n">
         <v>428.24</v>
@@ -44610,8 +45325,10 @@
       <c r="T156" s="99" t="n"/>
     </row>
     <row r="157">
-      <c r="A157" s="89" t="n">
-        <v>46049</v>
+      <c r="A157" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
       </c>
       <c r="B157" s="117" t="n">
         <v>428.24</v>
@@ -44648,8 +45365,10 @@
       <c r="T157" s="99" t="n"/>
     </row>
     <row r="158">
-      <c r="A158" s="89" t="n">
-        <v>46050</v>
+      <c r="A158" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
       </c>
       <c r="B158" s="117" t="n">
         <v>428.24</v>
@@ -44686,8 +45405,10 @@
       <c r="T158" s="99" t="n"/>
     </row>
     <row r="159">
-      <c r="A159" s="89" t="n">
-        <v>46051</v>
+      <c r="A159" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
       </c>
       <c r="B159" s="117" t="n">
         <v>428.24</v>
@@ -44724,8 +45445,10 @@
       <c r="T159" s="99" t="n"/>
     </row>
     <row r="160">
-      <c r="A160" s="89" t="n">
-        <v>46052</v>
+      <c r="A160" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
       </c>
       <c r="B160" s="117" t="n">
         <v>428.24</v>
@@ -44762,8 +45485,10 @@
       <c r="T160" s="99" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="89" t="n">
-        <v>46053</v>
+      <c r="A161" s="99" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
       </c>
       <c r="B161" s="117" t="n">
         <v>428.24</v>
@@ -44800,8 +45525,10 @@
       <c r="T161" s="99" t="n"/>
     </row>
     <row r="162">
-      <c r="A162" s="89" t="n">
-        <v>46054</v>
+      <c r="A162" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
       </c>
       <c r="B162" s="117" t="n">
         <v>428.24</v>
@@ -44838,8 +45565,10 @@
       <c r="T162" s="99" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="89" t="n">
-        <v>46055</v>
+      <c r="A163" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
       </c>
       <c r="B163" s="117" t="n">
         <v>428.24</v>
@@ -44876,8 +45605,10 @@
       <c r="T163" s="99" t="n"/>
     </row>
     <row r="164">
-      <c r="A164" s="89" t="n">
-        <v>46056</v>
+      <c r="A164" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
       </c>
       <c r="B164" s="117" t="n">
         <v>428.24</v>
@@ -44914,8 +45645,10 @@
       <c r="T164" s="99" t="n"/>
     </row>
     <row r="165">
-      <c r="A165" s="89" t="n">
-        <v>46057</v>
+      <c r="A165" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
       </c>
       <c r="B165" s="117" t="n">
         <v>428.24</v>
@@ -44952,8 +45685,10 @@
       <c r="T165" s="99" t="n"/>
     </row>
     <row r="166">
-      <c r="A166" s="89" t="n">
-        <v>46058</v>
+      <c r="A166" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
       </c>
       <c r="B166" s="117" t="n">
         <v>428.24</v>
@@ -44990,8 +45725,10 @@
       <c r="T166" s="99" t="n"/>
     </row>
     <row r="167">
-      <c r="A167" s="89" t="n">
-        <v>46059</v>
+      <c r="A167" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
       </c>
       <c r="B167" s="117" t="n">
         <v>428.24</v>
@@ -45028,8 +45765,10 @@
       <c r="T167" s="99" t="n"/>
     </row>
     <row r="168">
-      <c r="A168" s="89" t="n">
-        <v>46060</v>
+      <c r="A168" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
       </c>
       <c r="B168" s="117" t="n">
         <v>428.24</v>
@@ -45066,8 +45805,10 @@
       <c r="T168" s="99" t="n"/>
     </row>
     <row r="169">
-      <c r="A169" s="89" t="n">
-        <v>46061</v>
+      <c r="A169" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
       </c>
       <c r="B169" s="117" t="n">
         <v>428.24</v>
@@ -45104,8 +45845,10 @@
       <c r="T169" s="99" t="n"/>
     </row>
     <row r="170">
-      <c r="A170" s="89" t="n">
-        <v>46062</v>
+      <c r="A170" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
       </c>
       <c r="B170" s="117" t="n">
         <v>428.24</v>
@@ -45142,8 +45885,10 @@
       <c r="T170" s="99" t="n"/>
     </row>
     <row r="171">
-      <c r="A171" s="89" t="n">
-        <v>46063</v>
+      <c r="A171" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
       </c>
       <c r="B171" s="117" t="n">
         <v>428.24</v>
@@ -45180,8 +45925,10 @@
       <c r="T171" s="99" t="n"/>
     </row>
     <row r="172">
-      <c r="A172" s="89" t="n">
-        <v>46064</v>
+      <c r="A172" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
       </c>
       <c r="B172" s="117" t="n">
         <v>428.24</v>
@@ -45218,8 +45965,10 @@
       <c r="T172" s="99" t="n"/>
     </row>
     <row r="173">
-      <c r="A173" s="89" t="n">
-        <v>46065</v>
+      <c r="A173" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
       </c>
       <c r="B173" s="117" t="n">
         <v>428.24</v>
@@ -45256,8 +46005,10 @@
       <c r="T173" s="99" t="n"/>
     </row>
     <row r="174">
-      <c r="A174" s="89" t="n">
-        <v>46066</v>
+      <c r="A174" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
       </c>
       <c r="B174" s="117" t="n">
         <v>428.24</v>
@@ -45294,8 +46045,10 @@
       <c r="T174" s="99" t="n"/>
     </row>
     <row r="175">
-      <c r="A175" s="89" t="n">
-        <v>46067</v>
+      <c r="A175" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
       </c>
       <c r="B175" s="117" t="n">
         <v>428.24</v>
@@ -45332,8 +46085,10 @@
       <c r="T175" s="99" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="89" t="n">
-        <v>46068</v>
+      <c r="A176" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
       </c>
       <c r="B176" s="117" t="n">
         <v>428.24</v>
@@ -45370,8 +46125,10 @@
       <c r="T176" s="99" t="n"/>
     </row>
     <row r="177">
-      <c r="A177" s="89" t="n">
-        <v>46069</v>
+      <c r="A177" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
       </c>
       <c r="B177" s="117" t="n">
         <v>428.24</v>
@@ -45408,8 +46165,10 @@
       <c r="T177" s="99" t="n"/>
     </row>
     <row r="178">
-      <c r="A178" s="89" t="n">
-        <v>46070</v>
+      <c r="A178" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
       </c>
       <c r="B178" s="117" t="n">
         <v>428.24</v>
@@ -45446,8 +46205,10 @@
       <c r="T178" s="99" t="n"/>
     </row>
     <row r="179">
-      <c r="A179" s="89" t="n">
-        <v>46071</v>
+      <c r="A179" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
       </c>
       <c r="B179" s="117" t="n">
         <v>428.24</v>
@@ -45484,8 +46245,10 @@
       <c r="T179" s="99" t="n"/>
     </row>
     <row r="180">
-      <c r="A180" s="89" t="n">
-        <v>46072</v>
+      <c r="A180" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
       </c>
       <c r="B180" s="117" t="n">
         <v>571.73</v>
@@ -45522,8 +46285,10 @@
       <c r="T180" s="99" t="n"/>
     </row>
     <row r="181">
-      <c r="A181" s="89" t="n">
-        <v>46073</v>
+      <c r="A181" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
       </c>
       <c r="B181" s="117" t="n">
         <v>571.73</v>
@@ -45560,8 +46325,10 @@
       <c r="T181" s="99" t="n"/>
     </row>
     <row r="182">
-      <c r="A182" s="89" t="n">
-        <v>46074</v>
+      <c r="A182" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
       </c>
       <c r="B182" s="117" t="n">
         <v>571.73</v>
@@ -45598,8 +46365,10 @@
       <c r="T182" s="99" t="n"/>
     </row>
     <row r="183">
-      <c r="A183" s="89" t="n">
-        <v>46075</v>
+      <c r="A183" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
       </c>
       <c r="B183" s="117" t="n">
         <v>571.73</v>
@@ -45636,8 +46405,10 @@
       <c r="T183" s="99" t="n"/>
     </row>
     <row r="184">
-      <c r="A184" s="89" t="n">
-        <v>46076</v>
+      <c r="A184" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
       </c>
       <c r="B184" s="117" t="n">
         <v>571.73</v>
@@ -45834,13 +46605,31 @@
       <c r="T188" s="99" t="n"/>
     </row>
     <row r="189">
-      <c r="A189" s="99" t="n"/>
-      <c r="B189" s="117" t="n"/>
-      <c r="C189" s="117" t="n"/>
-      <c r="D189" s="117" t="n"/>
-      <c r="E189" s="117" t="n"/>
-      <c r="F189" s="91" t="n"/>
-      <c r="G189" s="117" t="n"/>
+      <c r="A189" s="99" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B189" s="117" t="n">
+        <v>571.73</v>
+      </c>
+      <c r="C189" s="117" t="n">
+        <v>1498.6</v>
+      </c>
+      <c r="D189" s="117" t="n">
+        <v>3215.86</v>
+      </c>
+      <c r="E189" s="117" t="n">
+        <v>5286.19</v>
+      </c>
+      <c r="F189" s="91" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G189" s="117" t="inlineStr">
+        <is>
+          <t>carry</t>
+        </is>
+      </c>
       <c r="H189" s="117" t="n"/>
       <c r="I189" s="99" t="n"/>
       <c r="J189" s="99" t="n"/>
@@ -45856,13 +46645,31 @@
       <c r="T189" s="99" t="n"/>
     </row>
     <row r="190">
-      <c r="A190" s="99" t="n"/>
-      <c r="B190" s="117" t="n"/>
-      <c r="C190" s="117" t="n"/>
-      <c r="D190" s="117" t="n"/>
-      <c r="E190" s="117" t="n"/>
-      <c r="F190" s="91" t="n"/>
-      <c r="G190" s="117" t="n"/>
+      <c r="A190" s="99" t="inlineStr">
+        <is>
+          <t>2026-03-01</t>
+        </is>
+      </c>
+      <c r="B190" s="117" t="n">
+        <v>571.73</v>
+      </c>
+      <c r="C190" s="117" t="n">
+        <v>1505.08</v>
+      </c>
+      <c r="D190" s="117" t="n">
+        <v>3199.7</v>
+      </c>
+      <c r="E190" s="117" t="n">
+        <v>5276.5</v>
+      </c>
+      <c r="F190" s="91" t="n">
+        <v>1.2677</v>
+      </c>
+      <c r="G190" s="123" t="inlineStr">
+        <is>
+          <t>broker-sync</t>
+        </is>
+      </c>
       <c r="H190" s="117" t="n"/>
       <c r="I190" s="99" t="n"/>
       <c r="J190" s="99" t="n"/>
@@ -62392,7 +63199,7 @@
     </row>
     <row r="2">
       <c r="A2" s="121" t="n">
-        <v>46082.44681172186</v>
+        <v>46082.4658343421</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
@@ -62413,15 +63220,15 @@
         <v>0.734</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>189.82</v>
+        <v>177.1900024414062</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>140.07</v>
+        <v>130.0574617919922</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="121" t="n">
-        <v>46082.44681172186</v>
+        <v>46082.4658343421</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
@@ -62442,15 +63249,15 @@
         <v>15.1446</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>100.57</v>
+        <v>100.6399993896484</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1521.58</v>
+        <v>1524.15253475647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="121" t="n">
-        <v>46082.44681172186</v>
+        <v>46082.4658343421</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
@@ -62471,15 +63278,15 @@
         <v>1.2254</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>411.82</v>
+        <v>402.510009765625</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>525.26</v>
+        <v>493.2357659667969</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="121" t="n">
-        <v>46082.44681172186</v>
+        <v>46082.4658343421</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
@@ -62500,15 +63307,15 @@
         <v>1.7327</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>608.8099999999999</v>
+        <v>607.2899780273438</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1064.52</v>
+        <v>1052.251344927978</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="121" t="n">
-        <v>46082.44681172186</v>
+        <v>46082.4658343421</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -62537,7 +63344,7 @@
     </row>
     <row r="7">
       <c r="A7" s="121" t="n">
-        <v>46082.44681172186</v>
+        <v>46082.4658343421</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -62558,10 +63365,10 @@
         <v>0.28775</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1410.13</v>
+        <v>5230.5</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1410.13</v>
+        <v>1505.076375</v>
       </c>
     </row>
   </sheetData>

--- a/assets.xlsx
+++ b/assets.xlsx
@@ -32751,7 +32751,7 @@
         </is>
       </c>
       <c r="B2" s="77" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.47703024338</v>
       </c>
       <c r="C2" s="86" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="H3" s="122" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.47703024338</v>
       </c>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="n"/>
@@ -63199,7 +63199,7 @@
     </row>
     <row r="2">
       <c r="A2" s="121" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.47703024338</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
@@ -63228,7 +63228,7 @@
     </row>
     <row r="3">
       <c r="A3" s="121" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.47703024338</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
@@ -63257,7 +63257,7 @@
     </row>
     <row r="4">
       <c r="A4" s="121" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.47703024338</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
@@ -63286,7 +63286,7 @@
     </row>
     <row r="5">
       <c r="A5" s="121" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.47703024338</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
@@ -63315,7 +63315,7 @@
     </row>
     <row r="6">
       <c r="A6" s="121" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.47703024338</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -63344,7 +63344,7 @@
     </row>
     <row r="7">
       <c r="A7" s="121" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.47703024338</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>

--- a/assets.xlsx
+++ b/assets.xlsx
@@ -32751,7 +32751,7 @@
         </is>
       </c>
       <c r="B2" s="77" t="n">
-        <v>46082.47703024338</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="C2" s="86" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="H3" s="122" t="n">
-        <v>46082.47703024338</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="n"/>
@@ -63199,7 +63199,7 @@
     </row>
     <row r="2">
       <c r="A2" s="121" t="n">
-        <v>46082.47703024338</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
@@ -63228,7 +63228,7 @@
     </row>
     <row r="3">
       <c r="A3" s="121" t="n">
-        <v>46082.47703024338</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
@@ -63257,7 +63257,7 @@
     </row>
     <row r="4">
       <c r="A4" s="121" t="n">
-        <v>46082.47703024338</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
@@ -63286,7 +63286,7 @@
     </row>
     <row r="5">
       <c r="A5" s="121" t="n">
-        <v>46082.47703024338</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
@@ -63315,7 +63315,7 @@
     </row>
     <row r="6">
       <c r="A6" s="121" t="n">
-        <v>46082.47703024338</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -63344,7 +63344,7 @@
     </row>
     <row r="7">
       <c r="A7" s="121" t="n">
-        <v>46082.47703024338</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>

--- a/assets.xlsx
+++ b/assets.xlsx
@@ -32751,7 +32751,7 @@
         </is>
       </c>
       <c r="B2" s="77" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="C2" s="86" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="H3" s="122" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="n"/>
@@ -63199,7 +63199,7 @@
     </row>
     <row r="2">
       <c r="A2" s="121" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
@@ -63228,7 +63228,7 @@
     </row>
     <row r="3">
       <c r="A3" s="121" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
@@ -63257,7 +63257,7 @@
     </row>
     <row r="4">
       <c r="A4" s="121" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
@@ -63286,7 +63286,7 @@
     </row>
     <row r="5">
       <c r="A5" s="121" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
@@ -63315,7 +63315,7 @@
     </row>
     <row r="6">
       <c r="A6" s="121" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -63344,7 +63344,7 @@
     </row>
     <row r="7">
       <c r="A7" s="121" t="n">
-        <v>46082.4658343421</v>
+        <v>46082.50493478077</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>

--- a/assets.xlsx
+++ b/assets.xlsx
@@ -9987,7 +9987,7 @@
         </is>
       </c>
       <c r="B190" s="64" t="n">
-        <v>1.2677</v>
+        <v>1.2689</v>
       </c>
       <c r="C190" s="64" t="n"/>
       <c r="D190" s="64" t="n"/>
@@ -32751,7 +32751,7 @@
         </is>
       </c>
       <c r="B2" s="77" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.2857022881</v>
       </c>
       <c r="C2" s="86" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="H3" s="122" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.2857022881</v>
       </c>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="n"/>
@@ -46654,16 +46654,16 @@
         <v>571.73</v>
       </c>
       <c r="C190" s="117" t="n">
-        <v>1505.08</v>
+        <v>1510.08</v>
       </c>
       <c r="D190" s="117" t="n">
         <v>3199.7</v>
       </c>
       <c r="E190" s="117" t="n">
-        <v>5276.5</v>
+        <v>5281.51</v>
       </c>
       <c r="F190" s="91" t="n">
-        <v>1.2677</v>
+        <v>1.2689</v>
       </c>
       <c r="G190" s="123" t="inlineStr">
         <is>
@@ -63199,7 +63199,7 @@
     </row>
     <row r="2">
       <c r="A2" s="121" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.2857022881</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
@@ -63228,7 +63228,7 @@
     </row>
     <row r="3">
       <c r="A3" s="121" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.2857022881</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
@@ -63257,7 +63257,7 @@
     </row>
     <row r="4">
       <c r="A4" s="121" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.2857022881</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
@@ -63286,7 +63286,7 @@
     </row>
     <row r="5">
       <c r="A5" s="121" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.2857022881</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
@@ -63315,7 +63315,7 @@
     </row>
     <row r="6">
       <c r="A6" s="121" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.2857022881</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -63344,7 +63344,7 @@
     </row>
     <row r="7">
       <c r="A7" s="121" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.2857022881</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -63365,10 +63365,10 @@
         <v>0.28775</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5230.5</v>
+        <v>5247.89990234375</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1505.076375</v>
+        <v>1510.083196899414</v>
       </c>
     </row>
   </sheetData>

--- a/assets.xlsx
+++ b/assets.xlsx
@@ -9987,7 +9987,7 @@
         </is>
       </c>
       <c r="B190" s="64" t="n">
-        <v>1.2677</v>
+        <v>1.2689</v>
       </c>
       <c r="C190" s="64" t="n"/>
       <c r="D190" s="64" t="n"/>
@@ -32751,7 +32751,7 @@
         </is>
       </c>
       <c r="B2" s="77" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.74882633071</v>
       </c>
       <c r="C2" s="86" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="H3" s="122" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.74882633071</v>
       </c>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="n"/>
@@ -46654,16 +46654,16 @@
         <v>571.73</v>
       </c>
       <c r="C190" s="117" t="n">
-        <v>1505.08</v>
+        <v>1510.08</v>
       </c>
       <c r="D190" s="117" t="n">
         <v>3199.7</v>
       </c>
       <c r="E190" s="117" t="n">
-        <v>5276.5</v>
+        <v>5281.51</v>
       </c>
       <c r="F190" s="91" t="n">
-        <v>1.2677</v>
+        <v>1.2689</v>
       </c>
       <c r="G190" s="123" t="inlineStr">
         <is>
@@ -63199,7 +63199,7 @@
     </row>
     <row r="2">
       <c r="A2" s="121" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.74882633071</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
@@ -63228,7 +63228,7 @@
     </row>
     <row r="3">
       <c r="A3" s="121" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.74882633071</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
@@ -63257,7 +63257,7 @@
     </row>
     <row r="4">
       <c r="A4" s="121" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.74882633071</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
@@ -63286,7 +63286,7 @@
     </row>
     <row r="5">
       <c r="A5" s="121" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.74882633071</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
@@ -63315,7 +63315,7 @@
     </row>
     <row r="6">
       <c r="A6" s="121" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.74882633071</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -63344,7 +63344,7 @@
     </row>
     <row r="7">
       <c r="A7" s="121" t="n">
-        <v>46082.50493478077</v>
+        <v>46082.74882633071</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -63365,10 +63365,10 @@
         <v>0.28775</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5230.5</v>
+        <v>5247.89990234375</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1505.076375</v>
+        <v>1510.083196899414</v>
       </c>
     </row>
   </sheetData>
